--- a/New Idea/User Testing/First Round/Visual Charts/Data Matrix.xlsx
+++ b/New Idea/User Testing/First Round/Visual Charts/Data Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fluke\Desktop\Dissertation\New Idea\User Testing\First Round\Visual Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907E22CE-F465-4E15-867C-3ECCBF730AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C101B8D9-53A0-4AA4-9AB2-3475FCB8AD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AABE67D1-B82C-4B0A-B7CA-4B4F3098DF9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AABE67D1-B82C-4B0A-B7CA-4B4F3098DF9A}"/>
   </bookViews>
   <sheets>
     <sheet name="All videos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>Participant A</t>
   </si>
@@ -198,9 +198,6 @@
     <t>What colours did you see and how did they impact the video for you?</t>
   </si>
   <si>
-    <t>How did the coloiurs make you feel?</t>
-  </si>
-  <si>
     <t>Did the music and sound effects make you think of anything?</t>
   </si>
   <si>
@@ -387,6 +384,147 @@
       </rPr>
       <t>It was quite hard to watch and notice the different elements changing, music quite often became background as I was focused on the other elements. So maybe more dramatic changes to stand out more.</t>
     </r>
+  </si>
+  <si>
+    <t>It's quite satisfying, like I'm playing a game and I've killed a room full of people with a massive score multiplier. It's exciting, it has that energy to it.</t>
+  </si>
+  <si>
+    <t>I enjoyed the video</t>
+  </si>
+  <si>
+    <t>Theres a corridor, its lit okay, obvious obstacles for them to overcome, its very clear what is going on</t>
+  </si>
+  <si>
+    <t>Yeah, definitely. It's obvious from the beginning the character is going to beat all these people so I wouldn't say I was disappoined</t>
+  </si>
+  <si>
+    <t>I wouldn't say so, I was going in for the very first time, so I didn't really have expecations as I didn’t know what to expect</t>
+  </si>
+  <si>
+    <t>The first thing I see is a lot of blue, it's quite cold looking, I wouldn't say the environment is necessarily safe but rather feels potentially quite dangerous. The first thing I looked at were the walls and paint is chipped off and stuff and we were placing in an environment that is not the nicest and not necessarily that welcoming.</t>
+  </si>
+  <si>
+    <t>Cautious, if I had to put it down to one word</t>
+  </si>
+  <si>
+    <t>The drumming kind of sound effect is quite fast paced and gave me like jungle or tropical vibes. Similar to indiana jones being chased through the rainforest</t>
+  </si>
+  <si>
+    <t>It's an action for me</t>
+  </si>
+  <si>
+    <t>I would say it still stays in the action lane but due to it being quite up-beat maybe it is a bit comedic. Like an action comedy.</t>
+  </si>
+  <si>
+    <t>I'm not sure, every box was checked for me. The music was fast-paced, the action was good, the camera shots were cutting quickly.</t>
+  </si>
+  <si>
+    <t>Indiana Jones raiders of the last ark, where he is retrieving the ark and he has to make his way through the nazi vehicles and him engaging with oncoming enemies. The one thing that stood out to me when watching this video is the character, this person we are watching is dealing with each person at a time and it gives me the same vibe.</t>
+  </si>
+  <si>
+    <t>looked like a good game, I wouldn't say I felt any particular kind of way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeah </t>
+  </si>
+  <si>
+    <t>It was a bit jumpy and times and it looked like frames were missing</t>
+  </si>
+  <si>
+    <t>the beating up was satisfying</t>
+  </si>
+  <si>
+    <t>I thought it was going to be a bit more polished and I thought it was quite jumpy at times</t>
+  </si>
+  <si>
+    <t>orange I suppose which is quite eye-catching</t>
+  </si>
+  <si>
+    <t>How did the colours make you feel?</t>
+  </si>
+  <si>
+    <t>I don’t know</t>
+  </si>
+  <si>
+    <t>it adds to it but I wouldn't say it was very thought invoking</t>
+  </si>
+  <si>
+    <t>action, fighting</t>
+  </si>
+  <si>
+    <t>if the fights were a little bit smoother, felt quite jumpy at times</t>
+  </si>
+  <si>
+    <t>karate kid, where he has the jumper and is fighting the kids</t>
+  </si>
+  <si>
+    <t>I was kind of shooked, that’s why I wasn't saying much, it was very impressive, very cool, well coloured and well choreographed. I  felt excited, the music definitely helped and I think as you started the video straight to 100, I thought "oh yeah", it definitely caught my attention</t>
+  </si>
+  <si>
+    <t>yeah, I would watch again</t>
+  </si>
+  <si>
+    <t>Good, maybe the transition from different perspectives could have lasted longer from some angles, some of the angles were very crispy and very good but then all of a sudden we were moving, but I enjoyed it</t>
+  </si>
+  <si>
+    <t>From the get go where she started hitting people with her bottle you could tell there was a lot of love and care, so there was no instance of disappointment</t>
+  </si>
+  <si>
+    <t>it was all reached</t>
+  </si>
+  <si>
+    <t>colour palette was very grey, blue so the sharp reds definitely stuck out to me but it was bright so I could see all that was going on but the reds stood out to me</t>
+  </si>
+  <si>
+    <t>kind of anonymous, all the enemies were dressed in green, very mysterious, very dark and with her with red showed a colour of resistance to fight the baddies</t>
+  </si>
+  <si>
+    <t>my first thought was donkey kong, but it moved to walking into a big style arena. You knew something was happening and it was about to kick off</t>
+  </si>
+  <si>
+    <t>marital arts, hack and slash, street fighter</t>
+  </si>
+  <si>
+    <t>action adventure with a little spark of romance</t>
+  </si>
+  <si>
+    <t>It's difficult as you kind of have the fight scenes, more vocal audios would have been nice and could have enhanced the fight scene</t>
+  </si>
+  <si>
+    <t>marvel movie shang-shi where he is a lone martial artists fighting against a group of people, there were a lot of comparisons between that movie</t>
+  </si>
+  <si>
+    <t>it wasn’t overtly aggressive, it led you down the corridor with her</t>
+  </si>
+  <si>
+    <t>You could see everything that was going on, on-screen and went in close when it needed to</t>
+  </si>
+  <si>
+    <t>I liked the way you could hear the weapon hitting the person</t>
+  </si>
+  <si>
+    <t>No, I don’t think so</t>
+  </si>
+  <si>
+    <t>Blacks and greys generally, for the topic was pretty accurate and where they were fighting, looked like it should</t>
+  </si>
+  <si>
+    <t>It didn't really, didn’t make me think either way, they weren't too bright and they weren't too dark, you could see everything</t>
+  </si>
+  <si>
+    <t>No, not really the music sounded like a game but I did like the sound effects, I did specifically pick out the sound effects of the weapon</t>
+  </si>
+  <si>
+    <t>A fight game</t>
+  </si>
+  <si>
+    <t>Action I suppose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't know I think it was pretty good, you got the fight scene and you got the close up of the fight scene and you got the sound of the weapon, I think it was pretty comprohensive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transporter 2, where he is doing all that business with the fire hose, or just any scene in john wick </t>
   </si>
 </sst>
 </file>
@@ -489,9 +627,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -513,26 +650,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -851,7 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E243600-399A-4CC1-946C-B4E7231C4D7C}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -873,271 +1006,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>35</v>
+      <c r="C1" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="4" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="244.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="244.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    <row r="8" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-    </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1149,220 +1183,314 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6738FF18-A147-4E41-8523-161D7CF23846}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" customWidth="1"/>
     <col min="4" max="4" width="43.85546875" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" customWidth="1"/>
     <col min="6" max="6" width="37.85546875" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" customWidth="1"/>
     <col min="8" max="8" width="35.7109375" customWidth="1"/>
     <col min="9" max="9" width="33.5703125" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" customWidth="1"/>
-    <col min="11" max="11" width="38" customWidth="1"/>
-    <col min="12" max="12" width="38.7109375" customWidth="1"/>
-    <col min="13" max="13" width="51.5703125" customWidth="1"/>
+    <col min="10" max="10" width="51.85546875" customWidth="1"/>
+    <col min="11" max="11" width="57" customWidth="1"/>
+    <col min="12" max="12" width="50" customWidth="1"/>
+    <col min="13" max="13" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New Idea/User Testing/First Round/Visual Charts/Data Matrix.xlsx
+++ b/New Idea/User Testing/First Round/Visual Charts/Data Matrix.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fluke\Desktop\Dissertation\New Idea\User Testing\First Round\Visual Charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\User Testing\First Round\Visual Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C101B8D9-53A0-4AA4-9AB2-3475FCB8AD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD2D9E4-24E1-418C-B6DB-77F9131CB625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AABE67D1-B82C-4B0A-B7CA-4B4F3098DF9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{AABE67D1-B82C-4B0A-B7CA-4B4F3098DF9A}"/>
   </bookViews>
   <sheets>
     <sheet name="All videos" sheetId="1" r:id="rId1"/>
     <sheet name="Video 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Video 2" sheetId="4" r:id="rId3"/>
+    <sheet name="Video 3" sheetId="5" r:id="rId4"/>
+    <sheet name="Video 4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="449">
   <si>
     <t>Participant A</t>
   </si>
@@ -525,13 +528,2173 @@
   </si>
   <si>
     <t xml:space="preserve">Transporter 2, where he is doing all that business with the fire hose, or just any scene in john wick </t>
+  </si>
+  <si>
+    <t>Participant L</t>
+  </si>
+  <si>
+    <t>Participant M</t>
+  </si>
+  <si>
+    <t>Participant N</t>
+  </si>
+  <si>
+    <t>Participant P</t>
+  </si>
+  <si>
+    <t>No, but it definitely portrayed the progression of the game of going down the hall way. For me it is clear that these people are trying to block the way but no elements of the story is being conveyed.</t>
+  </si>
+  <si>
+    <t>Not particularly but I really enjoyed the videos and where you added your own creative aspects elevated the piece</t>
+  </si>
+  <si>
+    <t>Maisy</t>
+  </si>
+  <si>
+    <t>Amelie</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yes I think so, it slowly moved forward as it changed angles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I did like the way it flipped between different angles, and the way the CCTV footage suggested there was someone somewhere else that could see this happening, which was cool.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What information are you gathering from this? What is your thesis? What is your theory? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I will have users watched videos that have been created from information gathered in my secondary research. Following this I will have a collection of primary research. This will work alongside my secondary research as well as my future research that needs to be conducted. Eventually, coming together to create a promotional advert piece which will demonstrate how one piece of media or world event can be flipped to please one side or another purely based off of how it is portrayed in media.</t>
+    </r>
+  </si>
+  <si>
+    <t>Interviewer</t>
+  </si>
+  <si>
+    <t>Aadil</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Cal</t>
+  </si>
+  <si>
+    <t>Debra</t>
+  </si>
+  <si>
+    <t>Gill</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Oz</t>
+  </si>
+  <si>
+    <t>Pam</t>
+  </si>
+  <si>
+    <t>Participant M &amp; N</t>
+  </si>
+  <si>
+    <t>Participant P &amp; Q</t>
+  </si>
+  <si>
+    <t>Participant Q</t>
+  </si>
+  <si>
+    <t>Alfie</t>
+  </si>
+  <si>
+    <t>I don't like watching these sort of punch'em ups</t>
+  </si>
+  <si>
+    <t>No, I didn't enjoy it but I thought some of the movements were quite good but the way the characters fought was a bit cheesy</t>
+  </si>
+  <si>
+    <t>I suppose it had a lot of different angles, it had a lot of moments where there were close ups as well as pulling out to see the scene</t>
+  </si>
+  <si>
+    <t>I think the most interesting thing about it was the CCTV, that was a good twist</t>
+  </si>
+  <si>
+    <t>There were greys, lots of dark greys in the corridor, that kind of gave it an urban feel and the flashes of reds for symbols was nice</t>
+  </si>
+  <si>
+    <t>Gritty feel, was quite dark and made a sense of danger</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Just a punch'em up</t>
+  </si>
+  <si>
+    <t>Action, I guess. Kind of punches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More novel ways of killing people, better weapon choices as well </t>
+  </si>
+  <si>
+    <t>Die hard has some good actions scenes, using the props as well as navigating around the scene to get away or block the attackers</t>
+  </si>
+  <si>
+    <t>It was exciting and I think the cuts helped with that, having it on time with the music was also a good touch, it kind of kept the flow and the pace up. Having different camera angles as well all helped with the theme of a kung-fu movie</t>
+  </si>
+  <si>
+    <t>Yeah, it was exciting, there was kung-fu in it. You beat 10 people with a pipe which was quite brutal but pegi 16</t>
+  </si>
+  <si>
+    <t>It was wide screen, you could see a lot of what was going on. I liked the vignette around the screen, made it darker, more moodier. I liked the different camera angles as well, especially the cut to the security footage cam as well as the more adventerous ones like the ankle height one. Having a lot of different perspectives of the same scene helped liven it up</t>
+  </si>
+  <si>
+    <t>I didn't know what to expect going in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Again, I didn’t really know what to expect going in. I guess I had an expectation of a big fight scene and that was met </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The colours of the wall were quite pale which contrasted with the floor which was quite red. The camera angles helped place people in the scene so they stand out from the background. When you got a shot like the opening scene where they are all there and then a scene further on they're all clumped together trying to fight the character. You've also got the red sash on the main character which kind of keeps them in perspective and keeps them in focus. </t>
+  </si>
+  <si>
+    <t>They served the purpose of the scene but I wouldn’t say it made me feel a kind of way. But it helped in distinguishing the walls from the floor and keeping track of the main character</t>
+  </si>
+  <si>
+    <t>the drum soundtrack did make me think of a martial arts movie, it is very reminiscient of that. I think that is what you were going for and having it on the beats made it feel like a music video or trailer</t>
+  </si>
+  <si>
+    <t>Martial arts, gives off fast-paced trailer</t>
+  </si>
+  <si>
+    <t>Trailer kind of feel, theres never lull in the tempo. There are no breaks in this one</t>
+  </si>
+  <si>
+    <t>It has action in it, it is quite wide, perhaps more scenes closer in on the movement to convey the power of the strikes. Removing the distant feel from the characters would be nice</t>
+  </si>
+  <si>
+    <t>New top gun movie. It is quite difficult as it is a lot of planes but they do a good job of conveying the agility of the plane as well as the affect on the pilot. It does this through outside shots of the plane before cutting in close on the pilot so you can see what is going on in their head. It shows quite well what the character is going through as well as what they're doing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty badass and good to see that she could hold her own </t>
+  </si>
+  <si>
+    <t>Yeah, there wasn’t blood or things which I thought was quite good</t>
+  </si>
+  <si>
+    <t>It was okay, the footage was easy enough to follow</t>
+  </si>
+  <si>
+    <t>I liked the way she did hand to hand combat with the women instead of beating them up with a pole</t>
+  </si>
+  <si>
+    <t>It was short, I wanted to see her get to the end of the corridor</t>
+  </si>
+  <si>
+    <t>It flicked to black and white and one point, and since it did that I would have preferred it stayed like that until the end of the video instead of the 3 or 4 seconds it was on the screen. It didn't seem to follow why it did that</t>
+  </si>
+  <si>
+    <t>I would have preferred the black and white but because they're all in black it might have made it hard to pick them up. I don’t think the darkness of the theme was there with the colours</t>
+  </si>
+  <si>
+    <t>Fighting video, martial arts</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Ironically, twisting the music to more western as it felt like a stand-off</t>
+  </si>
+  <si>
+    <t>Bruce Lee when he had to fight the guy who killed his sister</t>
+  </si>
+  <si>
+    <t>Hyped</t>
+  </si>
+  <si>
+    <t>Yeah</t>
+  </si>
+  <si>
+    <t>I liked that it followed different povs and the CCTV shot was cool, added a movie element to it</t>
+  </si>
+  <si>
+    <t>Yeah, everyone got beat-up. It was fun</t>
+  </si>
+  <si>
+    <t>I thought it would be better if she took a fall at least once but she didn't</t>
+  </si>
+  <si>
+    <t>A muted grey and the CCTV bit was cool, made it feel like a crime/thriller</t>
+  </si>
+  <si>
+    <t>Tense</t>
+  </si>
+  <si>
+    <t>A karate movie, a battle sequence or a James bond movie</t>
+  </si>
+  <si>
+    <t>Crime, action kind of thing</t>
+  </si>
+  <si>
+    <t>I like the music, kept it up-beat, it was eerie or scary. I believe it fits what I previously said but different music could have portrayed the intention better, like a mission impossible soundtrack</t>
+  </si>
+  <si>
+    <t>Music change, maybe on-beat when they hit someone</t>
+  </si>
+  <si>
+    <t>Any kind of spy movie where the enemies come out of nowhere</t>
+  </si>
+  <si>
+    <t>run-of the mill in terms of fighting games</t>
+  </si>
+  <si>
+    <t>Definitely made to feel not claustraphobic but like there is limited space, makes the audience have to engage with it</t>
+  </si>
+  <si>
+    <t>I liked the part where they picked up the pipe</t>
+  </si>
+  <si>
+    <t>No, not really</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kept it plain on the side and the top which is a general colour of life. The colours were quite dull but the characters were well illuminated by the space lights. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I didn't feel any kind of way about the colours, they weren't offensive or a let down, they just felt necessary </t>
+  </si>
+  <si>
+    <t>The tempo of the music and the heavy use of lower mids and bass tries to make it feel like it is an action intense atmosphere</t>
+  </si>
+  <si>
+    <t>Action or like action adventure</t>
+  </si>
+  <si>
+    <t>the same</t>
+  </si>
+  <si>
+    <t>The entire clip was based on action, so I don’t know</t>
+  </si>
+  <si>
+    <t>One shot scene in daredevil, where he is fighting off enemies in a one shot. It also reminds me of a mission in fallout 4 where you fight off against Kellog</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Excited,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I thought it was cool, so I guess excited.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Yes. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yes</t>
+    </r>
+  </si>
+  <si>
+    <t>I thought it was well framed, at first I thought it was just going to be from behind but as the videos pans round you can see everything you need to see</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When that person got their head smashed against the wall with the pole. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I was expecting something gory. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It wasn't gory it was just very intense in the way it happened.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> And with the sound you could feel the impact</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I don't think so.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I guess my expectation was that there would be a gun because its framed like an FPS.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yeah but I was happy there wasn’t so I guess that was an expectation that wasn't met in a good way.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There was a lot of burnt orange which was quite nice but the rest was quite drab and muted so it was nice to have that one main pop of colour.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I liked the lighting and the circles it creates which you can see as you go down the corridor</t>
+    </r>
+  </si>
+  <si>
+    <t>Like I knew exactly what was going to happen. It looks like an image of where a fight scene is about to happen. Like the muted tones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think the music went well, it didn't overbear it, it just went well. </t>
+  </si>
+  <si>
+    <t>Action, originally I thought fantasy because she had a chain on her but it changed as she started to beat people up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action still, the constant beating drums helped in building intensity. </t>
+  </si>
+  <si>
+    <t>It was quite minimal on voice coming from the main characters mouth. So more the vocal element from her</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The only thing I can think of is Kill Bill, where she fights in the big building and kills all of those people. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yeah that was the first thing I thought of, it is very reminiscient of that.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I don't think I felt any particular way, I just thought it was someone good trying to get through a corridor of bad people.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I thought it was dramatic, I was also quite surprised by the brutality of it.</t>
+    </r>
+  </si>
+  <si>
+    <t>It was well put together</t>
+  </si>
+  <si>
+    <t>Can't say I noticed anything but if I saw it with a different border or ratio I may notice</t>
+  </si>
+  <si>
+    <t>I didn't particularly have any expectations going in</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No not for me.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I did think it was a well edited video</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I did like the bit where it followed the camera down to the bottle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, it was very cinematic</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I just thought it was a lot of blue and grey and I don’t particularly remember there being a lot of blood but I jusy remember a lot blue and grey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It was quite shaded and shadowy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I just concentrated on her fighting rather than the colours being a character themselves.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It made the colours feel less cartoon like, say you had the palette of mario which was blue and yellow. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That would change the whole thing though.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It would do, but you could watch the whole thing with people in clown clothes and it would be quite different</t>
+    </r>
+  </si>
+  <si>
+    <t>I liked the music, it made me root for her, trying to get through these people, rather than the sense of urgency that you felt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Martial arts, action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I would say it was an action in the way john wick is an action</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The music reminded me of john wick.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Theres a marvel fight scene on a bus and the music felt like that, very intense and up-beat, like the good guy was prevailing</t>
+    </r>
+  </si>
+  <si>
+    <t>Did it for me, and you had already kind of guessed it from the beginning</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I just found the music really positive and that you're rooting for the person. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reminded me of the raid and hard boiled which are both shot in confinded spaces and people have got to be creative and use their environment to get through</t>
+    </r>
+  </si>
+  <si>
+    <t>Video 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">its interesting, the colour is different from the first clip I watched as it is obviously in black and white. I think the music makes such a big different for me. The music kind of juxtaposes what you're actually watching in the video. The slow kind of jazz bar feel understates what you're watching, it is very relaxed and very chilled. It is almost like it is poking fun at what is going on in the video as it is such a big contrast. I would say it feels more cinematic than the first clip but it is also funnier. </t>
+  </si>
+  <si>
+    <t>I would, yes</t>
+  </si>
+  <si>
+    <t>The colour is the main thing, black and white. It lends the clip a darker vibe, it seems more serious than the first clip. It reminds me of Casino royale at the start, I don’t know if that is to do with the music but it is giving me a similar vibe to that. the framing of the video is dark not just because it is black and white, it just feels more sinister</t>
+  </si>
+  <si>
+    <t>It has a humour to it due to the music choice, I would say I enjoyed the clip perhaps over the first one due to the music</t>
+  </si>
+  <si>
+    <t>I anticipated maybe a switch up of the music as the scene and music did not fit together</t>
+  </si>
+  <si>
+    <t>It is black and white, it has a colder feel to it. Maybe if the video had more hue or saturation it would feel warmer but black and white is very cold and stoic. Makes me feel like the character is very emotionless in what they're doing</t>
+  </si>
+  <si>
+    <t>Cold and distant as I don’t see black and white on a day-to-day basis</t>
+  </si>
+  <si>
+    <t>Yes, it gives me a jazz bar vibe, people smoking cigars, it is a very elegant music choice</t>
+  </si>
+  <si>
+    <t>I still think it was like an action piece but in my mind maybe due to the music or black and white it has a spy kind of feel to it</t>
+  </si>
+  <si>
+    <t>Musical</t>
+  </si>
+  <si>
+    <t>Flashback sequence if you were to visually change it</t>
+  </si>
+  <si>
+    <t>Casablanca, is black and white which has the heavy kind of mood to it, very pessimistic perhaps, it reminds me of parts in that. One of the characters Rick has a jazz bar noir dark setting to it</t>
+  </si>
+  <si>
+    <t>I enjoyed that more</t>
+  </si>
+  <si>
+    <t>I did</t>
+  </si>
+  <si>
+    <t>Seemed more like an old detective show, it didn't seem to me as jumpy in black and white</t>
+  </si>
+  <si>
+    <t>I did find that more satisfying to watch but that might be personal taste more than anything else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>Black and white, felt like a more past tense scene</t>
+  </si>
+  <si>
+    <t>It excited me more in black and white but took out the brutality of action</t>
+  </si>
+  <si>
+    <t>Detective, jazz vibes, back stage in an old jazz bar vibes</t>
+  </si>
+  <si>
+    <t>Old timey. I'm not sure it almost had hints of romance to it in the music</t>
+  </si>
+  <si>
+    <t>Jazz and blues</t>
+  </si>
+  <si>
+    <t>I think you hit the nail on the head with that one</t>
+  </si>
+  <si>
+    <t>Spider noir from spider verse</t>
+  </si>
+  <si>
+    <t>I felt there was more of an emotional connection to the character in this one. The black and white lighting, the numbness of the sounds makes the viewer ask why is she fighting them, what has caused her to snap. Brings a more emotional side to the character and makes the viewer more interested in her story</t>
+  </si>
+  <si>
+    <t>Yes, more so than the first one</t>
+  </si>
+  <si>
+    <t>It was good, a lot of the audio queues were very good, I think the fight scenes were still very smooth and very good, felt slightly comedic as the nice music was playing in black and white and the character is slamming these people, which counters each other which is quite unique. It could have benefitted from more slow moments from the character to see how beating these people up makes them feel</t>
+  </si>
+  <si>
+    <t>From the beginning, I felt emotionally invested in the character, when it panned down to the bottle I was thinking had she been drinking before this battle, I was rather invested in the context</t>
+  </si>
+  <si>
+    <t>Because you started with that instant connection with the character it would have been nice to see the climax and how the character was feeling between fights. More focus on the character could have skyrocketed it</t>
+  </si>
+  <si>
+    <t>Black and white, which set the tone and the mood. You spoke to me without saying anything</t>
+  </si>
+  <si>
+    <t>Empathetic, intrigued</t>
+  </si>
+  <si>
+    <t>Yeah very unconventional, they were numbed. It was confusing as I felt relaxed but not visually</t>
+  </si>
+  <si>
+    <t>Drama action with a bit of comedy</t>
+  </si>
+  <si>
+    <t>Murder mystery drama, psychological</t>
+  </si>
+  <si>
+    <t>The colour palette fulfilled that but the music did seem quite comedic, so more feeling shown in the fight</t>
+  </si>
+  <si>
+    <t>Sin City is what appeared in my mind, crime fighting</t>
+  </si>
+  <si>
+    <t>I quite liked that one</t>
+  </si>
+  <si>
+    <t>Yeah, definitely different</t>
+  </si>
+  <si>
+    <t>It is intersting to see it from a different angle</t>
+  </si>
+  <si>
+    <t>I enjoyed the video, different take on a fight scene</t>
+  </si>
+  <si>
+    <t>Black and white, did make it more interesting</t>
+  </si>
+  <si>
+    <t>More restful, easier as there isn’t much going on</t>
+  </si>
+  <si>
+    <t>Quite romantic and melancholic, was like a story or reinactment someone was telling</t>
+  </si>
+  <si>
+    <t>Detective</t>
+  </si>
+  <si>
+    <t>Thriller but the music was quite romantic but the action wasn't</t>
+  </si>
+  <si>
+    <t>I'd tribute noir to older and more historical looking, that could be accomplished by changing clothing and setting</t>
+  </si>
+  <si>
+    <t>Spencer Tracey detective shows</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No, I didn't enjoy that one at all.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Not as much as the first one</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I didn't like it, I wouldn't carry on watching it. It felt like an entirely different scene. Same footage just in black and white but the sound at the beginning was fine but as it progressed the music didn't fit and put me of completely.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Was that because of the rhythm of it?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Yeah, it didn't fit, I expected someone to walk into a 1930s jazz club. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The beats didn't quite marry up to the footage.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I thought she was going to get beat before she got to the end like this was going to end well.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I thought they would get through but with a sense of reluctance but the sax at the end did slightly ruin the immersion of the video. The music and colouring felt quite sad.</t>
+    </r>
+  </si>
+  <si>
+    <t>As a whole it was less satisfying because it wasn't what I expected to see, in the first one everything went well together but here the genres kind of clashed which was hard to accept</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I didn’t notice anything different visually but it felt different.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Was it narrower? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maybe, it felt more enclosed but to me that was because of the sound and colour</t>
+    </r>
+  </si>
+  <si>
+    <t>I thought it would be better, but about four bars in I switched off completely, but it felt more violent maybe due to the colouring giving you less to look at</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It was all monochrome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>which was quite sad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sad and meedy.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yeah melancholy but the music was also kind of semi romantic.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yeah, you were expecting the nice looking lady to walk in as the band is playing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">some 1930s movie, casablanca. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A romantic jazz club.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A lovely lady walks in and perhaps the music stops for a second as she walked in. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Had that occurred having left the club and they enter this corridor which provides context but as it is, it is quite disjointed from what you're seeing</t>
+    </r>
+  </si>
+  <si>
+    <t>Film noir</t>
+  </si>
+  <si>
+    <t>Film noir, art house</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Some of the angles and close ups on eyes and fists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, slowed down instead of being manic. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Less brutality</t>
+    </r>
+  </si>
+  <si>
+    <t>1930s casablanca kind of scene</t>
+  </si>
+  <si>
+    <t>made it feel more like a dream sequence, the music made it feel more dettached</t>
+  </si>
+  <si>
+    <t>Was it different, I couldn't notice a difference</t>
+  </si>
+  <si>
+    <t>Couldn't see as much down the corridor so it didn’t feel like the bad guys were waiting to get beat</t>
+  </si>
+  <si>
+    <t>The lack of colour made it lose impact</t>
+  </si>
+  <si>
+    <t>Made it feel less real and more detached</t>
+  </si>
+  <si>
+    <t>Made me concentrate and the attacks more</t>
+  </si>
+  <si>
+    <t>Made me think of a cigar advert, light-hearted music to contrast action</t>
+  </si>
+  <si>
+    <t>Thriller, something different about the music</t>
+  </si>
+  <si>
+    <t>Put the clip into context more, film noir is quite complex and things don't just happen</t>
+  </si>
+  <si>
+    <t>I didn’t like that one it was all wrong</t>
+  </si>
+  <si>
+    <t>Not as much as the first one</t>
+  </si>
+  <si>
+    <t>with less distraction on the side makes you more focused on the character but when things are cut out it loses feeling and messages in the scene</t>
+  </si>
+  <si>
+    <t>I couldn't get past the music, it ruined it for me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I thought it was going to be a revenge style story but when the music came in it kind of shattered that expectation </t>
+  </si>
+  <si>
+    <t>Its all grey scale, the colour removes the people in the background as people blend into the scene unlike with colour where they stand out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the start it was interesting but I got annoyed as I couldn't see as much as I wanted to </t>
+  </si>
+  <si>
+    <t>Made me think of a chill scene that wouldn't have combat  so I guess annoyed</t>
+  </si>
+  <si>
+    <t>Action as that is what is happening on the screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenge thriller, makes it seem more personal, like there is more going on </t>
+  </si>
+  <si>
+    <t>More smoke, more haze, a noir movie is supposed to be detective so perhaps the clothing of the people in the scene could be changed</t>
+  </si>
+  <si>
+    <t>the latest blade runner felt like one, the detective is constantly on the back foot and the world is constantly beating him down but he is only good with combat. For noir to be successful you need context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I didn’t feel any different than the first one, I guess I felt more involved </t>
+  </si>
+  <si>
+    <t>I think it felt better</t>
+  </si>
+  <si>
+    <t>I thought it flowed better</t>
+  </si>
+  <si>
+    <t>I liked the black and white</t>
+  </si>
+  <si>
+    <t>Gave the story better</t>
+  </si>
+  <si>
+    <t>Started off well but then it became romantic and I expected the woman to start dancing soon</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>Rom com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take away the saxophone in the music </t>
+  </si>
+  <si>
+    <t>Quite relaxing, nice music, old school</t>
+  </si>
+  <si>
+    <t>Fit with the black and white them, like I was watching an old movie from the 30s</t>
+  </si>
+  <si>
+    <t>I expected someone to be waiting at the end of the scene to be reunited</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Made the video feel more relaxing and moody</t>
+  </si>
+  <si>
+    <t>Black and white, kinda grainy</t>
+  </si>
+  <si>
+    <t>Reminds me of a themed episode in a tv show, like in gossip girl</t>
+  </si>
+  <si>
+    <t>old school, 1930s noir</t>
+  </si>
+  <si>
+    <t>Old school hollywood movie trying to be french</t>
+  </si>
+  <si>
+    <t>Have things feel less intense, different outfits</t>
+  </si>
+  <si>
+    <t>anything with audrey hepburn in it</t>
+  </si>
+  <si>
+    <t>More comical in nature due to music, reminds me of coffee talk</t>
+  </si>
+  <si>
+    <t>This feels edited to be comical</t>
+  </si>
+  <si>
+    <t>Quite confusing and annoying cuts, but rather comedic because of the music</t>
+  </si>
+  <si>
+    <t>My expectations were subverted but in a positive manner</t>
+  </si>
+  <si>
+    <t>The music</t>
+  </si>
+  <si>
+    <t>It is all black and white and gives it a grainer and darker feel</t>
+  </si>
+  <si>
+    <t>Not too much, theres only so much black and white can make you feel</t>
+  </si>
+  <si>
+    <t>I didn't hear much sfx the music was very dominant</t>
+  </si>
+  <si>
+    <t>Noir, or old american detective show</t>
+  </si>
+  <si>
+    <t>Noir</t>
+  </si>
+  <si>
+    <t>Change the music to have a darker feeling to it, the brass instruments like trumpets which carry the weight of the music don’t change too much but the supplementary stuff, like piano which controls the overall tone has a massive impact on it. These sounds which you would hear more in a coffee shop give the tone a lighter feeling. If the brass was slowed down and the piano was minimalised, i would say it had a darker feel to it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA Noir, is what it reminded me of instantly. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entertained</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, but entertained because it felt a bit wrong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> but also gangster like,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1920s noir kind of vibe</t>
+    </r>
+  </si>
+  <si>
+    <t>Yeah but probably not for the reasons I was supposed to</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It was more closed and narrower, made it feel more vintage, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>couldn't really feel the impacts of hits, felt less like an action as there was less sound.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Felt like it was trying to focus in on the movement rather than the room. </t>
+    </r>
+  </si>
+  <si>
+    <t>it didn't feel like a fight scene more like a dance, there was no impactful hits</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It didn’t feel satisfying as it didn’t really fit,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I'd agree it felt kind of off, like something was wrong</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The black and white made me associate it with a different time period, not saying it doesn’t work but made it feel different. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Felt like some of the detail was lost which I missed from the first one</t>
+    </r>
+  </si>
+  <si>
+    <t>Still intrigued but in a different way, made me think of the future of the story and the context</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A jazz bar in the 40s, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I couldn't really hear sound effects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Still action but in a 1920s gangster way instead of a modern interpretation of it.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Very film noir</t>
+    </r>
+  </si>
+  <si>
+    <t>Music was rather romantic</t>
+  </si>
+  <si>
+    <t>Different music or perhaps the music shouldn't go with the scene. A more up tempo piece could fit it better</t>
+  </si>
+  <si>
+    <t>Bound is like a film noir without the black and white</t>
+  </si>
+  <si>
+    <t>Video 3</t>
+  </si>
+  <si>
+    <t>Felt a lot more easy going, more up-beat, more relaxed</t>
+  </si>
+  <si>
+    <t>Yes but not as much as the previous ones</t>
+  </si>
+  <si>
+    <t>The shot is wide and feels more cinematic</t>
+  </si>
+  <si>
+    <t>I liked the ending and the shot closes out with borders, reminded me of a western</t>
+  </si>
+  <si>
+    <t>It wasn't as dark as I thought it was going to be</t>
+  </si>
+  <si>
+    <t>The hues are warmer, its got a sepia tone to it, lets me know straight away its more up-beat and fun</t>
+  </si>
+  <si>
+    <t>More playful, warmer, more reds and yellows. It felt more inviting</t>
+  </si>
+  <si>
+    <t>Reminded me of a trailer for a game, had a sort of comic vibe to it</t>
+  </si>
+  <si>
+    <t>A huge action element to it but maybe geared towards a more child friendly viewing</t>
+  </si>
+  <si>
+    <t>A family film</t>
+  </si>
+  <si>
+    <t>Sound effects and music are pretty spot-on but I'd like to see the character take more hits to feel goofier or more comedic</t>
+  </si>
+  <si>
+    <t>Superbad and my favourite scene is probably getting the ID and them trying to buy the alcohol</t>
+  </si>
+  <si>
+    <t>I felt quite excited for that video due to the noises</t>
+  </si>
+  <si>
+    <t>Yes but what I will say is that the orange drew my attention away from the fighting</t>
+  </si>
+  <si>
+    <t>More focus on the fighting and impacts of the hits</t>
+  </si>
+  <si>
+    <t>The final combo on the last opponent</t>
+  </si>
+  <si>
+    <t>The colour drawing me away from the scene</t>
+  </si>
+  <si>
+    <t>Very saturated and more detailed as well as exaggerated because of the colour</t>
+  </si>
+  <si>
+    <t>More engaged as there was more to catch the eye</t>
+  </si>
+  <si>
+    <t>The music was a lot more of a background noise and the SFX were at the forefront, it reminded me of a game like street fighter</t>
+  </si>
+  <si>
+    <t>Video game</t>
+  </si>
+  <si>
+    <t>Laugh track and some exaggerated noise sfx like slipping or grunting</t>
+  </si>
+  <si>
+    <t>Inbetweeners where he is coming down the runway in his speedo. A second hand embarrasement kind of funny</t>
+  </si>
+  <si>
+    <t>I feel happy and that the characters were going to get beat up. The colours were pretty and fun</t>
+  </si>
+  <si>
+    <t>Yes, I enjoyed that one</t>
+  </si>
+  <si>
+    <t>Seemed to be more effects when characters were getting hit, felt more comedic. It was fluid and when a character got hit into a group of people, it was realistic but also funny because of the music and colouring. It just made me laugh</t>
+  </si>
+  <si>
+    <t>When that person got hit into the group, or when someone got bonked into the wall. It is very satisfying when the action is in time with music and sounds and it scratches that itch.</t>
+  </si>
+  <si>
+    <t>This was well excecuted, I can't think of any faults, it all blended well together</t>
+  </si>
+  <si>
+    <t>The saturation raised up the reds felt more vibrant, the flooring and characters feel more alive. It was more pretty to look at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made me feel happy and engaged. For people like me these colours quickly engage the audience </t>
+  </si>
+  <si>
+    <t>Reminded me of guardians of the galaxy where you have unconventional music over fight scenes</t>
+  </si>
+  <si>
+    <t>Action adventure, comedy and romance</t>
+  </si>
+  <si>
+    <t>Comedy, action adventure</t>
+  </si>
+  <si>
+    <t>Show a bit more emotion to portray a romantic feeling but also would be nice to see the emotions portrayed on the characters face.</t>
+  </si>
+  <si>
+    <t>Super ex girlfiend and how she fights anyone who goes with her ex, she fights people for love and being crazy</t>
+  </si>
+  <si>
+    <t>Seemed a lot lighter, quite an easy watch</t>
+  </si>
+  <si>
+    <t>I liked the close-ups</t>
+  </si>
+  <si>
+    <t>The whole thing was quite an easy watch</t>
+  </si>
+  <si>
+    <t>Not with the fight scenes, no</t>
+  </si>
+  <si>
+    <t>More colourful so gave a lighter feel all round</t>
+  </si>
+  <si>
+    <t>Didn't feel as serious even though the action was still there. The lighting and the music made it seem rather jolly</t>
+  </si>
+  <si>
+    <t>Felt more like a buddy cop kind of genre. If there was any talk there would be a funny line, like in lethal weapon</t>
+  </si>
+  <si>
+    <t>Action comedy</t>
+  </si>
+  <si>
+    <t>Speaking, or just more funny lines in between hits</t>
+  </si>
+  <si>
+    <t>Anything from lethal weapon or james bond when he says something clever</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I liked that one. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It was a lot cheerier. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I want to see the rest of it. It was a lot brighter and the music didn't interfere, it just made it more enjoyable but I wasn't noticing the music as a problem</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compared to the other ones we've seen, no.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Surprised by how different it was to the ones we saw before it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The colours were a lot more vibrant but I wouldn't say there were more, they had just been increased.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I'm not sure I noticed her making sounds when getting hit.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I heard it but not as well as in this one, maybe we are more engaged because of the colour and music</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perculiar, that we watched the exact same thing but it felt more cheerful. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It was fun and happy, made you want to carry on watching it.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> There was no sense of urgency in this one</t>
+    </r>
+  </si>
+  <si>
+    <t>It was a bit more action adventure, it made it a lot less violent</t>
+  </si>
+  <si>
+    <t>I wouldn't say action comedy but more adventure than all out action, more up-beat and fun</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Same but I think it was the music that completely aletered it. I think if you had that music coupled with the black and white, that would be really odd. The bright popping of the colours meant it was highly lit. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I think the music fit so well, that you didn't notice it, it was doing what it needed to.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tone down the violence, hitting people a lot makes it more brutal than funny but the last combo was rather funny but in black and white it was rather sad and violent</t>
+  </si>
+  <si>
+    <t>Reminded me a lot jim carrey movies</t>
+  </si>
+  <si>
+    <t>I think the violence had less impact</t>
+  </si>
+  <si>
+    <t>Yes, the colour made you look at other things not just the fighting</t>
+  </si>
+  <si>
+    <t>Had a wide screen so you could see more of what was going on</t>
+  </si>
+  <si>
+    <t>Felt like a Tom and Jerry cartoon, so it was like a standard comedy action</t>
+  </si>
+  <si>
+    <t>I don't think so, the fact it played down the violence was interesting</t>
+  </si>
+  <si>
+    <t>there were reds, blues, yellows and browns, there were a lot more colours and made me look around more instead of focusing on one thing</t>
+  </si>
+  <si>
+    <t>Made it feel less real and less aggressive</t>
+  </si>
+  <si>
+    <t>More cartoon like and people just walk off injury</t>
+  </si>
+  <si>
+    <t>Comedy and cartoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same </t>
+  </si>
+  <si>
+    <t>Funnier props to hurt people with and funnier end results</t>
+  </si>
+  <si>
+    <t>Reminded me of Jumanji where he is reciting the controls to get through the bad guys</t>
+  </si>
+  <si>
+    <t>Conflicted and played for laughs. Conflicted with the violence from the screen but the popping reds keep your eye on the protagonist but on the other hand, the walls and floor being brighter slightly draw your attention away from the centre of the screen</t>
+  </si>
+  <si>
+    <t>Yeah, for the most part I enjoyed it but it was a little confusing</t>
+  </si>
+  <si>
+    <t>Standard wide screen, doesn’t feel particularly cinematic I can just see everything on the screen</t>
+  </si>
+  <si>
+    <t>The music is supposed to imply that the video is funny which is boosted by the voice</t>
+  </si>
+  <si>
+    <t>Expected some funny edits to happen in the video</t>
+  </si>
+  <si>
+    <t>Red which is very saturated and can be distracting</t>
+  </si>
+  <si>
+    <t>The increased saturation made the floor quite coral and the walls quite aqua, its quite overstimulating because of so much visual noise in the colours</t>
+  </si>
+  <si>
+    <t>Was supposed to be like a social media advert with boosted colours and over the top sounds</t>
+  </si>
+  <si>
+    <t>Comedic</t>
+  </si>
+  <si>
+    <t>Action comedy, the brass kind of gave that feel</t>
+  </si>
+  <si>
+    <t>Some more edits, it is still edited like a comedy, more slapstick would be nice</t>
+  </si>
+  <si>
+    <t>Rush hour, and jackie chan is pushed through the door and the scene is very slapstick with unexpected consequences</t>
+  </si>
+  <si>
+    <t>Dancing, very choreographed</t>
+  </si>
+  <si>
+    <t>Colours were vibrant, I liked the way the ending shut and it seemed like the characters were dancing with the music</t>
+  </si>
+  <si>
+    <t>Worked well with the music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wasn't expecting much really, the music hinted at other events so I looked around the scene more </t>
+  </si>
+  <si>
+    <t>I expected to people to break out into dance</t>
+  </si>
+  <si>
+    <t>There were a lot of red and oranges, very flamey colours</t>
+  </si>
+  <si>
+    <t>I was expecting them to dance and gang</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>If the colours weren't so vibrant, I spent more time looking at the colours and listening to the music than the scene</t>
+  </si>
+  <si>
+    <t>the holiday and they all lay down in the tent with the fairy lights</t>
+  </si>
+  <si>
+    <t>Bit more content</t>
+  </si>
+  <si>
+    <t>No, it wasn’t my favourite but it did make me chuckle</t>
+  </si>
+  <si>
+    <t>Wasn't looking, distracted by the colours</t>
+  </si>
+  <si>
+    <t>Didn’t know what I was watching, the colours and sounds were distracting</t>
+  </si>
+  <si>
+    <t>Not really</t>
+  </si>
+  <si>
+    <t>Pinky, bluey, kind of pastel cute which made it more cheerful</t>
+  </si>
+  <si>
+    <t>Cheerful</t>
+  </si>
+  <si>
+    <t>Music was not very memorable but the voice and sound effects stood out</t>
+  </si>
+  <si>
+    <t>Teen romance</t>
+  </si>
+  <si>
+    <t>Cheesy romantic movie</t>
+  </si>
+  <si>
+    <t>A motive would have been nice, to know what she was fighting for but comedy would have more noise and responses to action on screen through vocals. More unique sound effects. More slapstick</t>
+  </si>
+  <si>
+    <t>Monster in law and jennifer lopez makes the dogs eat the makeup</t>
+  </si>
+  <si>
+    <t>This was the most disappointing one so far, I thought the other two added something to the scene but this feels reskinned</t>
+  </si>
+  <si>
+    <t>Yes but there was nothing extra to it</t>
+  </si>
+  <si>
+    <t>Similar to the first one but more open</t>
+  </si>
+  <si>
+    <t>I quite liked the sound effects being at the forefront</t>
+  </si>
+  <si>
+    <t>It was adequate and enjoyable</t>
+  </si>
+  <si>
+    <t>The base palette is very different, this was stylised with personal influence. It has a pinkish hue which you wouldn't see naturally in a day to day. This video was more reminiscient of a mobile game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feels like a lighter experience, more comical. </t>
+  </si>
+  <si>
+    <t>Reminds me of comedy and a goofy light hearted version of comedy</t>
+  </si>
+  <si>
+    <t>Splatoon or plants vs zombies</t>
+  </si>
+  <si>
+    <t>The same type of vibe as game as overcooked</t>
+  </si>
+  <si>
+    <t>People not beating each other</t>
+  </si>
+  <si>
+    <t>Resident evil has elements of comedy, and games like overcooked that have goofy elements to it with a lot of slapstick</t>
+  </si>
+  <si>
+    <t>I was quite entertained in a good way, it felt like a lower age ranging than it probably is. It reminded me a lot of fortnite</t>
+  </si>
+  <si>
+    <t>Yeah,  I did</t>
+  </si>
+  <si>
+    <t>I preferred the wider framing, there was so much detail going down that corridor, that the framing had to be like that</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The music satisfied it, the speed of it went with the fight. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Its not a mega speedy MMA fight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. It didn't distract.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I liked how there were more sound effects in this one.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Yeah, that satisfied me more as I could hear more punches </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When it first started, it sounded more comical to me. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I wish the music had more impactful moments. When the camera panned to the bottle it felt important like the camera had chose to do that for a reason and the music didn’t quite follow that.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Might be a blue filter, there was more orange, blue, cyan.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I think I felt more focused on the bluey colours this time. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oh, I liked the corridor, the floor.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Actually I hadn’t noticed the light as much as I used to</t>
+    </r>
+  </si>
+  <si>
+    <t>Seems a lot less threatening than the other two</t>
+  </si>
+  <si>
+    <r>
+      <t>The music reminded me of customer creation in a game,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a lot like idle music. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The sound effects were much better. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The sound effects were much more crisp.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The sounds felt more like a fight scene but the music felt very like an idle moment.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kids movie or like a comedy. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It could be comedic in a way.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> But not in like a silly funny comedy way, but in a family uplifting way.</t>
+    </r>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>The sound effects could be goofier, the volume was good but more emphasis on silly sound effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight scenes in comedy need a comedy of errors like in hangover. </t>
+  </si>
+  <si>
+    <t>Video 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +2725,34 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -627,7 +2818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -666,6 +2857,30 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -982,15 +3197,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E243600-399A-4CC1-946C-B4E7231C4D7C}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="82.140625" customWidth="1"/>
     <col min="3" max="3" width="105.28515625" customWidth="1"/>
     <col min="4" max="4" width="50.7109375" bestFit="1" customWidth="1"/>
@@ -1069,7 +3284,7 @@
     </row>
     <row r="7" spans="1:13" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -1080,7 +3295,7 @@
     </row>
     <row r="8" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
@@ -1089,7 +3304,7 @@
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1098,7 +3313,7 @@
     </row>
     <row r="10" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -1107,22 +3322,38 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>4</v>
+      <c r="A12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
@@ -1137,41 +3368,148 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="B15" s="13"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1181,26 +3519,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6738FF18-A147-4E41-8523-161D7CF23846}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" customWidth="1"/>
+    <col min="8" max="8" width="57.42578125" customWidth="1"/>
+    <col min="9" max="9" width="51" customWidth="1"/>
     <col min="10" max="10" width="51.85546875" customWidth="1"/>
     <col min="11" max="11" width="57" customWidth="1"/>
-    <col min="12" max="12" width="50" customWidth="1"/>
+    <col min="12" max="12" width="66" customWidth="1"/>
     <col min="13" max="13" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1245,7 +3583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1284,6 +3622,1346 @@
       </c>
       <c r="M2" s="3" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2C475B-AF68-405D-8317-A40A9ACDD880}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" customWidth="1"/>
+    <col min="8" max="8" width="57.42578125" customWidth="1"/>
+    <col min="9" max="9" width="51" customWidth="1"/>
+    <col min="10" max="10" width="51.85546875" customWidth="1"/>
+    <col min="11" max="11" width="57" customWidth="1"/>
+    <col min="12" max="12" width="66" customWidth="1"/>
+    <col min="13" max="13" width="63.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6A5D2E-FC25-4561-BF8E-5522C669B9BC}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" customWidth="1"/>
+    <col min="8" max="8" width="57.42578125" customWidth="1"/>
+    <col min="9" max="9" width="51" customWidth="1"/>
+    <col min="10" max="10" width="51.85546875" customWidth="1"/>
+    <col min="11" max="11" width="57" customWidth="1"/>
+    <col min="12" max="12" width="66" customWidth="1"/>
+    <col min="13" max="13" width="63.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -1291,138 +4969,710 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>335</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>337</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>338</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>58</v>
+        <v>339</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>340</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>64</v>
+        <v>344</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>346</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>69</v>
+        <v>349</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>72</v>
+        <v>352</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>73</v>
+        <v>353</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B2DB4A-ED1D-4F15-9A6B-76EAB5FEF9FB}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" customWidth="1"/>
+    <col min="8" max="8" width="57.42578125" customWidth="1"/>
+    <col min="9" max="9" width="51" customWidth="1"/>
+    <col min="10" max="10" width="51.85546875" customWidth="1"/>
+    <col min="11" max="11" width="57" customWidth="1"/>
+    <col min="12" max="12" width="66" customWidth="1"/>
+    <col min="13" max="13" width="63.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1492,6 +5742,190 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Idea/User Testing/First Round/Visual Charts/Data Matrix.xlsx
+++ b/New Idea/User Testing/First Round/Visual Charts/Data Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Dissertation\New Idea\User Testing\First Round\Visual Charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fluke\Desktop\Dissertation\New Idea\User Testing\First Round\Visual Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD2D9E4-24E1-418C-B6DB-77F9131CB625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F2B12D-2715-4331-AC0F-C83BDF2767E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{AABE67D1-B82C-4B0A-B7CA-4B4F3098DF9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{AABE67D1-B82C-4B0A-B7CA-4B4F3098DF9A}"/>
   </bookViews>
   <sheets>
     <sheet name="All videos" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Video 2" sheetId="4" r:id="rId3"/>
     <sheet name="Video 3" sheetId="5" r:id="rId4"/>
     <sheet name="Video 4" sheetId="6" r:id="rId5"/>
+    <sheet name="Video 5" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="604">
   <si>
     <t>Participant A</t>
   </si>
@@ -1852,9 +1853,6 @@
     <t>My expectations were subverted but in a positive manner</t>
   </si>
   <si>
-    <t>The music</t>
-  </si>
-  <si>
     <t>It is all black and white and gives it a grainer and darker feel</t>
   </si>
   <si>
@@ -2688,13 +2686,1017 @@
   </si>
   <si>
     <t>Video 4</t>
+  </si>
+  <si>
+    <t>The CCTV and stuff made you feel more immersed</t>
+  </si>
+  <si>
+    <t>I was intrigued, didn't really know what I was watching</t>
+  </si>
+  <si>
+    <t>The borders made it look more cinematic, looking down the hallway and see people approaching</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yeah, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yeah it was good</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I liked when it cut to the CCTV bit. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I liked the final fight combo</t>
+    </r>
+  </si>
+  <si>
+    <t>I thought it did what it needed to</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oranges,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I saw mostly grey</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">they were quite dull, wasn't much standing out to me </t>
+  </si>
+  <si>
+    <t>I was more focused on the fight than the sounds</t>
+  </si>
+  <si>
+    <t>Thriller, up-beat fast paced, it compliments the action</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I think it did its job, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>some more close ups to feel the impact of hits</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Any movie with jackie chan,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reminded me of the marvel movie with captain america in the lift surrounded by enemies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jolly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I was kind of vibing</t>
+    </r>
+  </si>
+  <si>
+    <t>I liked it more than the first one but probably not for the right reasons</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vertical borders, I never notice stuff like that but it made it feel more boxed, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">more old fashioned. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With the borders and the corridor, it slightly lines up</t>
+    </r>
+  </si>
+  <si>
+    <t>I liked the saxophone</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The music was quite relaxing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>but doesn’t match it</t>
+    </r>
+  </si>
+  <si>
+    <t>Black and white, it compliments the music but the actual content doesn't</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Depressed,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relaxed. A bit of both, it took away from the action, the last one was quite dull but this one even more so</t>
+    </r>
+  </si>
+  <si>
+    <t>Vibing, feeling a bit sleepy</t>
+  </si>
+  <si>
+    <t>Classical, old black and white movies, musical. Fancy ballroom with the piano in the corner</t>
+  </si>
+  <si>
+    <t>The fighting goes against the theme, and the genre feels older than what is on the screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carry on </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Happy,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I don't know if I was imagining this but the sound effects seemed louder. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You can see the blood better in this video as well</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Yeah, not as much as the last one though. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I liked this one more than the last one</t>
+    </r>
+  </si>
+  <si>
+    <t>Didn't notice it as much</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I liked you can see the blood a bit more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. I still haven't noticed any blood</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>More vibrant like blues,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> felt more like sleeping dogs the game</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vibrant, so more positive energy. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reminded me of oxford</t>
+    </r>
+  </si>
+  <si>
+    <t>Family kind of game shows</t>
+  </si>
+  <si>
+    <t>Some form of an up-beat genre</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comedy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, comedy action where they are planning a heist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People not getting beat, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>there could still be fighting but done in a less brutal fashion with effects.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> More sound effects</t>
+    </r>
+  </si>
+  <si>
+    <t>TED</t>
+  </si>
+  <si>
+    <t>More tense when watching it</t>
+  </si>
+  <si>
+    <t>It was okay</t>
+  </si>
+  <si>
+    <t>I like it a lot it feels more threatening, more menacing, it feels more ominous than dark. More on edge and unsettled</t>
+  </si>
+  <si>
+    <t>A lot of tension at the start with the character and the bottle facing off against the guy, that fight breakout satisfied my expectations</t>
+  </si>
+  <si>
+    <t>Nothing comes to mind</t>
+  </si>
+  <si>
+    <t>Lots more blues and greens, a bit colder and colder emotionally. Less inviting</t>
+  </si>
+  <si>
+    <t>Evokes a raw, critial kind of feel. Made me feel nervous</t>
+  </si>
+  <si>
+    <t>Had a thriller element especailly with the pan down to the bottle, you don't really understand what was going to go on. Automatically off of the music it feels ominous</t>
+  </si>
+  <si>
+    <t>Thriller</t>
+  </si>
+  <si>
+    <t>What is good is that showdown at the beginning of the video but what could make it more like a thriller is the build up of tension</t>
+  </si>
+  <si>
+    <t>American psycho where the woman is sitting on the sofa at the house. It is very tense because you are unsure whether she is going to get killed or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quite atmospheric, horror thriller vibes, especially because of the chord at the beginning </t>
+  </si>
+  <si>
+    <t>Looked quite grimey, more muted colours. Added voice lines made it more cinemtatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That chord at the beginning set the tone for the video </t>
+  </si>
+  <si>
+    <t>Blue filter over it made the video more muted</t>
+  </si>
+  <si>
+    <t>More engaged with what was going on rather than the scene around it</t>
+  </si>
+  <si>
+    <t>Thriller or spooky kind of vibe</t>
+  </si>
+  <si>
+    <t>Make the scene darker, was still quite bright and exposed</t>
+  </si>
+  <si>
+    <t>Girl on the train when she is going home drunk</t>
+  </si>
+  <si>
+    <t>Tense atmosphere which is built through the music and the repetition of the voice makes you question what the protagonist is doing as it sounds like begging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes it feel more intimate and confrontational </t>
+  </si>
+  <si>
+    <t>Two tone shift and the bass level which is a lower note on the piano shifts down a couple which tied with the sound effects really pulls the piece together</t>
+  </si>
+  <si>
+    <t>More of a darker base palette, the floor is a brown which is neutral but the supplementary colours are very green. Lots of shadows which don't allow you to see as much. Through my experience this makes a very intense and unexplorable atmosphere and makes the character feel more uncomfortable exploring it</t>
+  </si>
+  <si>
+    <t>Feels very similar to horror or the scene in last of us 2 where you progress through the game as Ellie and fight the first stronghold. It feels like the character is fighting an enemy they have almost a personal vendetta against, the enemy doesn't share that which is shown through audio design. Reminds me of an action based horror game. There is possibility for a greater threat. The sort of situation in which the protagonist is instigating a fight against many, it gets the mind thinking, "what is going on for them to put themselves in this risk?". They will happily put themselves through this risk like there is something bigger that they are trying to achieve</t>
+  </si>
+  <si>
+    <t>Horror or action horror</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>What is going on in the clip, having the enemies less confrontational as it doesn't fit with the audio given in the clip. The enemies being more hesistant or scattered could possibly fit the scene better</t>
+  </si>
+  <si>
+    <t>yeah. Felt like a rollercoaster</t>
+  </si>
+  <si>
+    <t>More intense and slower, probably because of the music. I heard a beeping that was like a heart rate which made me nervous as well as the "stop, stop" makes you zone out the fighting and has you think what is going on. Made the video feel longer and the fights feel more evil.</t>
+  </si>
+  <si>
+    <t>Liked the intial "stop" and was glad that it was repeated, it emphasised that whatever was going on is serious. It felt like the guards didn’t actually want to fight. Felt like there was more emotion involved in it</t>
+  </si>
+  <si>
+    <t>Wanted to watch more to see what was actually happening. The intention you were aiming for was consistent throughout and it definitely had me on edge. Wouldn't say I was disappointed</t>
+  </si>
+  <si>
+    <t>It was very dark, almost sad in a way, there was little colour, the only thing that was bright was the lights. Looks almost post-apocalyptic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was a little on edge, before the music started I could already tell this was going to be a bit of a deep one. It put me on edge which I wasn’t a fan of but it did its intention </t>
+  </si>
+  <si>
+    <t>At the beginning I thought it was going to be a horror but the more it played it made me sad. The heart beat sound raised the stakes for me and made the scene feel more intense. The scene felt more meaningful, felt like there was going to be consequences if she didnt make it to the other side</t>
+  </si>
+  <si>
+    <t>Horror dystopian based on the colours but factoring in the fighting I would say a dystopian action drama</t>
+  </si>
+  <si>
+    <t>More brutality to demonstrate the severity of the fight</t>
+  </si>
+  <si>
+    <t>24 the show series with the rush and the stress, it keeps you on your toes</t>
+  </si>
+  <si>
+    <t>Thought it was darker and it seemed more violent</t>
+  </si>
+  <si>
+    <t>For what it was I did, was more dark than I would watch</t>
+  </si>
+  <si>
+    <t>The framing was interesting at times you felt far away as if viewing from a camera and then other times you felt quite close like you were there in on it, so that was quite interesting from the two different perspectives</t>
+  </si>
+  <si>
+    <t>The different perspectives were interesting</t>
+  </si>
+  <si>
+    <t>Darker again which made it more suspensful and scary which suited the footage of the video</t>
+  </si>
+  <si>
+    <t>Nothing particularly but it suited what was going on on the screen</t>
+  </si>
+  <si>
+    <t>Much more dramatic with the music which enhanced the violence on the screen as it was a darker soundtrack</t>
+  </si>
+  <si>
+    <t>Torn between thriller and horror but im leaning towards thriller</t>
+  </si>
+  <si>
+    <t>Tame in violence was a bit of a letdown, so maybe some visible injuries would enhance the darkness of the shot</t>
+  </si>
+  <si>
+    <t>John wick or jason bourne</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I was behind her from the beginning, it seemed like something she had to get through but she was capable of getting through. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I thought the opposite, I thought she felt like the aggressor and that people were begging her to stop</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I enjoyed the music with it but ive enjoyed the happier ones more over it. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Being able to hear the sound effects more clearly in this one and the last one made the hits feel harsher but in the last one the hits sound comical however here it sounded horrible</t>
+    </r>
+  </si>
+  <si>
+    <t>That was wider</t>
+  </si>
+  <si>
+    <t>If there were zombies I wouldn’t have been surprised, it felt like a horror</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The colours were far more subdued, a lot more greys and blues.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I think the brightness was turned down. The colours were still there just not as bright. I thought it was still quite colourful but muted</t>
+    </r>
+  </si>
+  <si>
+    <t>I quite enjoyed the colouring of that one</t>
+  </si>
+  <si>
+    <t>Horror and it changed it for me, that we were following the antagonist</t>
+  </si>
+  <si>
+    <t>Horror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bit more positivtiy, I would still expect the character to be the hero </t>
+  </si>
+  <si>
+    <t>Tom clancy movies</t>
+  </si>
+  <si>
+    <t>Gave it a perspective of who we should be rooting for</t>
+  </si>
+  <si>
+    <t>Nervous, the colours were spooky. From the get-go I noticed the doors looked like cages. It almost indicates that this character is trying to escape from something and the enemies are trying to stop her. The vocal audio made me question who I should be rooting for, it was quite morally grey</t>
+  </si>
+  <si>
+    <t>Yes, because of that context I felt more invested in it</t>
+  </si>
+  <si>
+    <t>The speaking added context</t>
+  </si>
+  <si>
+    <t>It isnt something I noticed when watching</t>
+  </si>
+  <si>
+    <t>Wasn't as mindless as before</t>
+  </si>
+  <si>
+    <t>Still quite colourful and felt more realistic. The people themselves were clearer</t>
+  </si>
+  <si>
+    <t>More invested</t>
+  </si>
+  <si>
+    <t>Horror feel, wasn't mindless felt like a purpose</t>
+  </si>
+  <si>
+    <t>Cutaway to the cctv similar to the first one as it makes you feel like there is more at stake with others watching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silence of the lambs where she visits him in the prison </t>
+  </si>
+  <si>
+    <t>Felt uncomfortable in that video, the music made it feel more sinister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, I thought it was effective in what it was trying to do, so I enjoyed it from that standpoint </t>
+  </si>
+  <si>
+    <t>I liked the black bars but it still feels wide screen. The cutting off the vertical made me focus in on the centre more</t>
+  </si>
+  <si>
+    <t>I liked the added sound effects from the vocals of the people. There was a distinction of making you think like there was more going on</t>
+  </si>
+  <si>
+    <t>This should have been more violent to make the character feel more evil, this would have been helped by a more violent weapon</t>
+  </si>
+  <si>
+    <t>It was very green, a matrix sort of feeling. The colours were quite washed out but not like the greyscale one. It felt quite grungy and more sinsister</t>
+  </si>
+  <si>
+    <t>Made the scene feel colder and like the scene was more personal</t>
+  </si>
+  <si>
+    <t>The final mission in the last of us where everyone is trying to stop the main character but they continue to push through anyway</t>
+  </si>
+  <si>
+    <t>Action thriller</t>
+  </si>
+  <si>
+    <t>Scary, horror style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Film grain to distort and make it harder to see, raising the stakes by having a more lethal weapon or have the main character take a few hits to build tension and raise the stakes </t>
+  </si>
+  <si>
+    <t>Seven, there is a dread in that movie which this clip kind of captures but there should have been more consequence behind the violence</t>
+  </si>
+  <si>
+    <t>More engrossed in it</t>
+  </si>
+  <si>
+    <t>I was engrossed in it so I didn’t really have much to say when watching it</t>
+  </si>
+  <si>
+    <t>The whole thing did</t>
+  </si>
+  <si>
+    <t>Was expecting a main bad guy to appear near the end</t>
+  </si>
+  <si>
+    <t>They bled into one another which seemed to make a difference. Even though you saw the red it was quite neutral</t>
+  </si>
+  <si>
+    <t>Didn’t make me feel anything, just made me want to watch it</t>
+  </si>
+  <si>
+    <t>Chilling, close to a thriller</t>
+  </si>
+  <si>
+    <t>Detective type thriller</t>
+  </si>
+  <si>
+    <t>Nothing really as it made me feel like a thriller</t>
+  </si>
+  <si>
+    <t>In sherlock where he is solving serious crimes</t>
+  </si>
+  <si>
+    <t>On edge, uneasy</t>
+  </si>
+  <si>
+    <t>Yeah, it seemed to all match a lot better</t>
+  </si>
+  <si>
+    <t>It didn’t have a different aspect ratio but the different camera angles were good, the cctv shot would have fit nicely here. Might have been cooler to see the enemies come at the camera</t>
+  </si>
+  <si>
+    <t>Everybody got hurt</t>
+  </si>
+  <si>
+    <t>Should have been more built up</t>
+  </si>
+  <si>
+    <t>Felt quite like a horror at first but you wouldn’t expect that much action in a horror so perhaps a thriller</t>
+  </si>
+  <si>
+    <t>on edge</t>
+  </si>
+  <si>
+    <t>More slow paced so it felt like we were heading towards a climax which was never resolved, that was quite irritating</t>
+  </si>
+  <si>
+    <t>Further build up of tension, walking at someone and there would be a face off</t>
+  </si>
+  <si>
+    <t>Any sort of scene from taken as it was grungy and grotty</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On edge,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a bit spooked, felt like there were stakes like in taken</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Yeah, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no I felt scared</t>
+    </r>
+  </si>
+  <si>
+    <t>Bits got cut off by the frame, I prefer when it is on the sides as I feel like I can see more</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The music put me off</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the music didn’t match the video</t>
+    </r>
+  </si>
+  <si>
+    <t>Thought the video might be slower paced</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Much darker than the one we just watched with navy and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>greens</t>
+    </r>
+  </si>
+  <si>
+    <t>Depressed and grimey</t>
+  </si>
+  <si>
+    <t>Thriller, horror and tense</t>
+  </si>
+  <si>
+    <t>Take the fight scene out and have them perhaps entering the building sneaking about, a more show don’t tell</t>
+  </si>
+  <si>
+    <t>In the first season of You where Joe is creeping around the manor house</t>
+  </si>
+  <si>
+    <r>
+      <t>Scared,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a lot more on edge</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Not as tall, the footage was wide screen but cut.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It felt more eerie like we were going somewhere</t>
+    </r>
+  </si>
+  <si>
+    <t>The "oi" at the beginning worked well as like a warning or challenge</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I wanted the video to carry on. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yeah I wanted to know what was behind the door, I felt unsatisfied that it ended</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Greens, lots of green. Quite a dark green which I associate with horror. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The green almost made it look more shadowy. The first section has never been that dark. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yeah, I could understand if we had some lights flickering</t>
+    </r>
+  </si>
+  <si>
+    <t>On edge again</t>
+  </si>
+  <si>
+    <r>
+      <t>reminded me of stranger things,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> especially when theyre in hawkins lab </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or the russian prison</t>
+    </r>
+  </si>
+  <si>
+    <t>Thriller, horror</t>
+  </si>
+  <si>
+    <t>Horror, I think thriller would be more intense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think if the music had more of a build up to a climax but I really enjoyed the sound effects. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stranger things in the russian prison where it feels quite greeney. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I was thinking a little bit like the shining</t>
+    </r>
+  </si>
+  <si>
+    <t>Video 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2753,6 +3755,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2818,7 +3841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2881,6 +3904,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3199,8 +4234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E243600-399A-4CC1-946C-B4E7231C4D7C}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,7 +4372,9 @@
       <c r="A12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="22" t="s">
+        <v>448</v>
+      </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -3521,8 +4558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6738FF18-A147-4E41-8523-161D7CF23846}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C31"/>
+    <sheetView topLeftCell="I6" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3991,22 +5028,46 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="B12" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -4191,8 +5252,700 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2C475B-AF68-405D-8317-A40A9ACDD880}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="47.28515625" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" customWidth="1"/>
+    <col min="8" max="8" width="57.42578125" customWidth="1"/>
+    <col min="9" max="9" width="51" customWidth="1"/>
+    <col min="10" max="10" width="51.85546875" customWidth="1"/>
+    <col min="11" max="11" width="57" customWidth="1"/>
+    <col min="12" max="12" width="66" customWidth="1"/>
+    <col min="13" max="13" width="63.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6A5D2E-FC25-4561-BF8E-5522C669B9BC}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView topLeftCell="I5" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4214,7 +5967,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>197</v>
+        <v>321</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>23</v>
@@ -4253,470 +6006,490 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>198</v>
+        <v>322</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>199</v>
+        <v>323</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>200</v>
+        <v>324</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>201</v>
+        <v>325</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>202</v>
+        <v>326</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>203</v>
+        <v>327</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>204</v>
+        <v>328</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>205</v>
+        <v>329</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>206</v>
+        <v>330</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>207</v>
+        <v>331</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>208</v>
+        <v>332</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>210</v>
+        <v>334</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>212</v>
+        <v>336</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>213</v>
+        <v>337</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>215</v>
+        <v>339</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>217</v>
+        <v>341</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>219</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>220</v>
+        <v>343</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>222</v>
+        <v>345</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>223</v>
+        <v>346</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>224</v>
+        <v>347</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>225</v>
+        <v>348</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>226</v>
+        <v>349</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>227</v>
+        <v>350</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>228</v>
+        <v>351</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>229</v>
+        <v>352</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>231</v>
+        <v>354</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>234</v>
+        <v>357</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>236</v>
+        <v>358</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>237</v>
+        <v>359</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>214</v>
+        <v>360</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>238</v>
+        <v>361</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>239</v>
+        <v>362</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>240</v>
+        <v>363</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>241</v>
+        <v>364</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>243</v>
+        <v>365</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>246</v>
+        <v>367</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>248</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D6" s="21"/>
       <c r="E6" s="21" t="s">
-        <v>247</v>
+        <v>368</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>252</v>
+        <v>122</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>371</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>255</v>
+        <v>373</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>374</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>122</v>
+        <v>377</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>258</v>
+        <v>378</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>259</v>
+        <v>379</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>261</v>
+        <v>381</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>262</v>
+        <v>382</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>263</v>
+        <v>383</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>253</v>
+        <v>384</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>264</v>
+        <v>385</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>266</v>
+        <v>388</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>267</v>
+        <v>389</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>268</v>
+        <v>390</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>269</v>
+        <v>391</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>270</v>
+        <v>392</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>271</v>
+        <v>393</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>272</v>
+        <v>394</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>273</v>
+        <v>395</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>274</v>
+        <v>396</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>275</v>
+        <v>397</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>276</v>
+        <v>398</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>151</v>
+        <v>401</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>279</v>
+        <v>402</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>280</v>
+        <v>403</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>281</v>
+        <v>405</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>282</v>
+        <v>406</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>283</v>
+        <v>407</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>285</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>286</v>
+        <v>409</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>287</v>
+        <v>411</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>267</v>
+        <v>412</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>288</v>
+        <v>413</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>289</v>
+        <v>414</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>290</v>
+        <v>415</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>292</v>
+        <v>416</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>291</v>
+        <v>417</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>293</v>
+        <v>418</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>294</v>
+        <v>419</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>295</v>
+        <v>420</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>296</v>
+        <v>421</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>298</v>
+        <v>423</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>299</v>
+        <v>424</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>300</v>
+        <v>425</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>301</v>
+        <v>426</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>302</v>
+        <v>427</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>303</v>
+        <v>428</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>304</v>
+        <v>429</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>305</v>
+        <v>430</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>307</v>
+        <v>432</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>308</v>
+        <v>433</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>310</v>
+      <c r="B13" s="18" t="s">
+        <v>435</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>311</v>
+        <v>436</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>314</v>
+        <v>437</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>438</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>316</v>
+        <v>440</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>441</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>318</v>
+        <v>443</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>319</v>
+        <v>444</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>320</v>
+        <v>445</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>321</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4857,12 +6630,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6A5D2E-FC25-4561-BF8E-5522C669B9BC}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B2DB4A-ED1D-4F15-9A6B-76EAB5FEF9FB}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4884,7 +6657,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>322</v>
+        <v>447</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>23</v>
@@ -4923,466 +6696,488 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>323</v>
+        <v>482</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>324</v>
+        <v>483</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>325</v>
+        <v>484</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>326</v>
+        <v>485</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>327</v>
+        <v>486</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>328</v>
+        <v>487</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>329</v>
+        <v>488</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>330</v>
+        <v>489</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>331</v>
+        <v>490</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>332</v>
+        <v>490</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>333</v>
+        <v>491</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>335</v>
+        <v>493</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>336</v>
+        <v>211</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>337</v>
+        <v>494</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>339</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>340</v>
+        <v>496</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>341</v>
+        <v>497</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>342</v>
+        <v>498</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="K3" s="3"/>
+        <v>490</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>490</v>
+      </c>
       <c r="L3" s="3" t="s">
-        <v>344</v>
+        <v>499</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>346</v>
+        <v>540</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>347</v>
+        <v>509</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>348</v>
+        <v>510</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>349</v>
+        <v>511</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>350</v>
+        <v>512</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>351</v>
+        <v>513</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>352</v>
+        <v>514</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>353</v>
+        <v>515</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>354</v>
+        <v>516</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>355</v>
+        <v>490</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>356</v>
+        <v>517</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>358</v>
+        <v>519</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>151</v>
+        <v>520</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>359</v>
+        <v>521</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>360</v>
+        <v>522</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>361</v>
+        <v>122</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>362</v>
+        <v>523</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>363</v>
+        <v>524</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>364</v>
+        <v>525</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>365</v>
+        <v>526</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>365</v>
+        <v>490</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>366</v>
+        <v>527</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>368</v>
+        <v>529</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21" t="s">
-        <v>369</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="E6" s="21"/>
       <c r="F6" s="4" t="s">
-        <v>122</v>
+        <v>532</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>371</v>
+        <v>533</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>534</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>372</v>
+        <v>535</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>373</v>
+        <v>536</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>374</v>
+        <v>536</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>377</v>
+        <v>539</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>378</v>
+        <v>541</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>379</v>
+        <v>543</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>380</v>
+        <v>542</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>381</v>
+        <v>544</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>382</v>
+        <v>545</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>383</v>
+        <v>546</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>384</v>
+        <v>547</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>385</v>
+        <v>536</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>386</v>
+        <v>536</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>387</v>
+        <v>548</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>389</v>
+        <v>550</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>390</v>
+        <v>551</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>391</v>
+        <v>552</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>392</v>
+        <v>553</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>393</v>
+        <v>554</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>394</v>
+        <v>555</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>395</v>
+        <v>556</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>396</v>
+        <v>557</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>397</v>
+        <v>558</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>398</v>
+        <v>559</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>401</v>
+        <v>562</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>402</v>
+        <v>211</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>403</v>
+        <v>563</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>404</v>
+        <v>564</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>405</v>
+        <v>565</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>406</v>
+        <v>566</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>407</v>
+        <v>567</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>408</v>
+        <v>568</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="K9" s="3"/>
+        <v>569</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>490</v>
+      </c>
       <c r="L9" s="3" t="s">
-        <v>410</v>
+        <v>570</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>412</v>
+        <v>572</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>413</v>
+        <v>573</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>414</v>
+        <v>574</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>415</v>
+        <v>575</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>416</v>
+        <v>576</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>417</v>
+        <v>577</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>418</v>
+        <v>578</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>419</v>
+        <v>579</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>420</v>
+        <v>490</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>422</v>
+        <v>580</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>424</v>
+        <v>501</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>425</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>426</v>
+        <v>502</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>427</v>
+        <v>503</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>430</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>431</v>
+        <v>505</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>436</v>
+        <v>592</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>437</v>
+        <v>151</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>438</v>
+        <v>593</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>439</v>
+        <v>594</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>440</v>
+        <v>595</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>441</v>
+        <v>596</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>442</v>
+        <v>597</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>443</v>
+        <v>598</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>444</v>
+        <v>599</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>445</v>
+        <v>600</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>446</v>
+        <v>601</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>447</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -5523,12 +7318,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B2DB4A-ED1D-4F15-9A6B-76EAB5FEF9FB}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0C95F2-FF73-4C2A-9845-6C6D2AD5D61D}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5550,7 +7345,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>448</v>
+        <v>603</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>23</v>
@@ -5667,12 +7462,12 @@
       <c r="E6" s="21"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
-      <c r="M6" s="4"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -5764,16 +7559,16 @@
         <v>112</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">

--- a/New Idea/User Testing/First Round/Visual Charts/Data Matrix.xlsx
+++ b/New Idea/User Testing/First Round/Visual Charts/Data Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fluke\Desktop\Dissertation\New Idea\User Testing\First Round\Visual Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F2B12D-2715-4331-AC0F-C83BDF2767E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2453B3A0-223B-41ED-8819-96F8CEC076A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{AABE67D1-B82C-4B0A-B7CA-4B4F3098DF9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AABE67D1-B82C-4B0A-B7CA-4B4F3098DF9A}"/>
   </bookViews>
   <sheets>
     <sheet name="All videos" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Video 3" sheetId="5" r:id="rId4"/>
     <sheet name="Video 4" sheetId="6" r:id="rId5"/>
     <sheet name="Video 5" sheetId="7" r:id="rId6"/>
+    <sheet name="Video 6" sheetId="8" r:id="rId7"/>
+    <sheet name="Video 7" sheetId="9" r:id="rId8"/>
+    <sheet name="Video 8" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="1065">
   <si>
     <t>Participant A</t>
   </si>
@@ -223,9 +226,6 @@
     <t>Key:</t>
   </si>
   <si>
-    <t>Luke Hammond</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">What was your favourite clip? </t>
     </r>
@@ -549,24 +549,6 @@
     <t>Not particularly but I really enjoyed the videos and where you added your own creative aspects elevated the piece</t>
   </si>
   <si>
-    <t>Maisy</t>
-  </si>
-  <si>
-    <t>Amelie</t>
-  </si>
-  <si>
-    <t>Harry</t>
-  </si>
-  <si>
-    <t>Liam</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Steven</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -637,30 +619,6 @@
     <t>Interviewer</t>
   </si>
   <si>
-    <t>Aadil</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Cal</t>
-  </si>
-  <si>
-    <t>Debra</t>
-  </si>
-  <si>
-    <t>Gill</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>Oz</t>
-  </si>
-  <si>
-    <t>Pam</t>
-  </si>
-  <si>
     <t>Participant M &amp; N</t>
   </si>
   <si>
@@ -670,9 +628,6 @@
     <t>Participant Q</t>
   </si>
   <si>
-    <t>Alfie</t>
-  </si>
-  <si>
     <t>I don't like watching these sort of punch'em ups</t>
   </si>
   <si>
@@ -3690,6 +3645,2240 @@
   </si>
   <si>
     <t>Video 5</t>
+  </si>
+  <si>
+    <t>The scene starts off as quite dark and quite eerie but that is indispurts with upbeat and comedic elements but it also switches back so I don’t necessarily know how I should feel</t>
+  </si>
+  <si>
+    <t>I did, I enjoyed that a lot</t>
+  </si>
+  <si>
+    <t>yeah, definitely, the action sequence at the start made it obvious we were going to be fighting these people which was helped by the change in tempo</t>
+  </si>
+  <si>
+    <t>Because of the start I was expecting the scene to stay the same sort of tempo but was put in a state of shock when it switched</t>
+  </si>
+  <si>
+    <t>The first half of the scene was black and white gives the scene an immeditate sense of danger but when it starts to switch it lets you relax and think this scene is comedic</t>
+  </si>
+  <si>
+    <t>I found it very humourous switching between colours, it is a lot more fun and safe. It is less serious when not in the coloured scenes</t>
+  </si>
+  <si>
+    <t>Musically the sounds fit with the colouring but is has a sort of slapstick comedy element to it which was quite upbeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im not sure, I couldn’t tell you </t>
+  </si>
+  <si>
+    <t>Im not sure again but I think it would be something that I would watch</t>
+  </si>
+  <si>
+    <t>The main thing I can say is that it is energetic, purely because the scene changes and adapts with the colour and the sound but it stays consistent in that there is tempo to it and that it is fast paced, whether that is musically or visually</t>
+  </si>
+  <si>
+    <t>I enjoyed it</t>
+  </si>
+  <si>
+    <t>Feels more chaotic, maybe because of the red beeping at the start, it felt more overwhelming</t>
+  </si>
+  <si>
+    <t>I really liked the switch up in music to the jazz piano feel. I don’t know how to describe it but it really scratched a spot in my brain</t>
+  </si>
+  <si>
+    <t>I expected more danger because of the start with the beeping and the red hue appearing, paired with the narrow aspect ratio, it created a sense of hazard and intensity</t>
+  </si>
+  <si>
+    <t>The red stands out a lot, in previous clips it has been quite warming and inviting but in this clip it is used in a more dangerous way. The grains at the beginning made it feel quite chaotic but that feel stays consistent with the switches in colour from warm to cold. It makes the scene chaotic and hard to keep up with but not in a bad way</t>
+  </si>
+  <si>
+    <t>It is a very animated clip, it made me feel tireless and psyched up</t>
+  </si>
+  <si>
+    <t>At the start it has a mission impossible, action vibe to it because of the red at the beginning</t>
+  </si>
+  <si>
+    <t>Because of how energetic it is, possibly adventure</t>
+  </si>
+  <si>
+    <t>Spy, action but that is not consistent throughout the clip</t>
+  </si>
+  <si>
+    <t>I don’t like the film grain element of the video if you were to create a spy/heist kind of video. That for me gives a more western vibe</t>
+  </si>
+  <si>
+    <t>James bond spectre, where he has to save the woman from the building with the bomb, and the red gave me that sense</t>
+  </si>
+  <si>
+    <t>I feel almost tricked or lulled into this false sense of security with this upbeat and fast scene where the aspect ratio changes and chops but then the music changes. I feel tricked</t>
+  </si>
+  <si>
+    <t>Not really, there is too much change for me</t>
+  </si>
+  <si>
+    <t>I like the start where it works with the music in the aspect ratio but the amount of change was too much and overwhelming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I liked the tempo at the start and when the aspect ratio came in small it set the tempo. </t>
+  </si>
+  <si>
+    <t>But what disappointed me was the amount of change in music, style and colour</t>
+  </si>
+  <si>
+    <t>At the start it was very warm, there is some sort of effect that makes it energetic. Reminds me of the setting of City of God. But the black and white portions brings it back down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the start im very excited because im promised a really up-beat action sequence with vibrant colours but that is taken away from me and I feel quite robbed. </t>
+  </si>
+  <si>
+    <t>not anything in particular, other than the start which reminds me of the movie I mentioned earlier but that might be down to how much it changed that it didn’t make me think of anything</t>
+  </si>
+  <si>
+    <t>In truth, I couldn’t tell you. But the quick changes in ratio remind me of a western</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>I really like the opening scene and there isnt much I would want to add to it</t>
+  </si>
+  <si>
+    <t>One of the memorable scenes from the incredibles near the start where the house is on fire and him and Frozone are saving the people from the building</t>
+  </si>
+  <si>
+    <t>It is missing a certain depth to it, feels one dimensional</t>
+  </si>
+  <si>
+    <t>Not really, but I didn’t dislike it. I felt rather neutral about it</t>
+  </si>
+  <si>
+    <t>there is nothing really special about it, the aspect ratio doesn’t change. It feels rather mundane</t>
+  </si>
+  <si>
+    <t>I liked the sound effects, with no music the sounds do have to carry and I really like them. For instance when the person is hitting them with the bat it feels like this person is really beating them up</t>
+  </si>
+  <si>
+    <t>Music, which I think speaks for so much scenes in which we don’t notice until it is not there. It feels like it is lacking in depth as it is missing a score over it</t>
+  </si>
+  <si>
+    <t>Mostly greens and yellows, doesn’t necessarily make the scene inviting or cold. It just makes it feel neutral. I'm not sure if its because I have watched these other scenes but it feels liking it is missing that "seasoning"</t>
+  </si>
+  <si>
+    <t>I feel indifferent maybe go as far as saying disinterested as there is not any colours that stand and keep me interested</t>
+  </si>
+  <si>
+    <t>The sound effects stand out a lot more, it gives the scene a lot more gravitas, it is a lot more serious. There is no distraction from the music in the scene and you have to focus and are left to deal with what is happening in the scene. There is nowhere to hide</t>
+  </si>
+  <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>Crime or an independent movie</t>
+  </si>
+  <si>
+    <t>Having a great score to go alongside or just changes in ratio, I need to have a higher sense of urgency in the scene whereas this felt rather flat</t>
+  </si>
+  <si>
+    <t>Karate kid stands out to me where he has to run to the top of the mountain and get the water as I feel there is a sense of challenge and accomplishment</t>
+  </si>
+  <si>
+    <t>Video 8</t>
+  </si>
+  <si>
+    <t>Video 7</t>
+  </si>
+  <si>
+    <t>Video 6</t>
+  </si>
+  <si>
+    <t>I don’t know, it was quite jarring when it jumped to black and white, not necessarily in a bad way. It felt like a change of perspective</t>
+  </si>
+  <si>
+    <t>Yes, in a surprise kind of enjoyment</t>
+  </si>
+  <si>
+    <t>Im not sure I get it but im trying to find why that happened</t>
+  </si>
+  <si>
+    <t>When it changed to black and white as I felt like I knew what was going on in those scenes</t>
+  </si>
+  <si>
+    <t>It was a surprise when the music changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obviously it changed from black and white to full colour which came as a surprise </t>
+  </si>
+  <si>
+    <t>Shocked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My thoughts on the video changed when the music changed as I was trying to figure out what the genre of the video was </t>
+  </si>
+  <si>
+    <t>I don’t know, in my brain the black and white is from the characters point of view and the colour is everyone elses point of view and this is what is actually happening. However I don’t know if there is a genre for that</t>
+  </si>
+  <si>
+    <t>it was quite hard to follow but it was alright</t>
+  </si>
+  <si>
+    <t>yes, as it kept changing I wanted to see what was going to happen next</t>
+  </si>
+  <si>
+    <t>I wouldn’t say it followed a pattern or path. It reminds me of getting a new software as a kid trying out the slide animations on powerpoint</t>
+  </si>
+  <si>
+    <t>I liked when it went from wide to narrow film but it didn’t make sense</t>
+  </si>
+  <si>
+    <t>No, I don’t think so. I wasn’t expecting anything</t>
+  </si>
+  <si>
+    <t>Lots of colours, it was almost amateur looking because of all the colours shown</t>
+  </si>
+  <si>
+    <t>At the start I was thinking kind of BeReal because of all the effects and filters, like a behind the scenes filming bit</t>
+  </si>
+  <si>
+    <t>I don’t think there was one</t>
+  </si>
+  <si>
+    <t>Im not sure</t>
+  </si>
+  <si>
+    <t>If the grain bit at the beginning was toned down or not there as I was just distracted by all the floating bits on the screen</t>
+  </si>
+  <si>
+    <t>Mission impossible</t>
+  </si>
+  <si>
+    <t>A bit lost but the genre changes seemed on purpose and well timed</t>
+  </si>
+  <si>
+    <t>Felt like a more toned down, more refined version of the one we just watched</t>
+  </si>
+  <si>
+    <t>When the guy got hit by the bar and the style changed</t>
+  </si>
+  <si>
+    <t>I didn’t like the bit at the beginning where it cut in</t>
+  </si>
+  <si>
+    <t>There were a lot of colours but the bit that stuck out to me was when it changed to black and white because it was such a drastic change it was seemless</t>
+  </si>
+  <si>
+    <t>Like there was a purpose to the change</t>
+  </si>
+  <si>
+    <t>No as it changed so much</t>
+  </si>
+  <si>
+    <t>No idea</t>
+  </si>
+  <si>
+    <t>The marvel intro comes to mind</t>
+  </si>
+  <si>
+    <t>Felt like it was missing something with no music</t>
+  </si>
+  <si>
+    <t>It was satisfying to watch, not as interesting as the other ones. That felt more like a game than a cinematic piece</t>
+  </si>
+  <si>
+    <t>It was okay, not very thought invoking</t>
+  </si>
+  <si>
+    <t>I really thought there would be some kind of music, even background</t>
+  </si>
+  <si>
+    <t>I saw the orange light switch but it wasn’t as attention grabbing as before, it was just part of the scene</t>
+  </si>
+  <si>
+    <t>eh</t>
+  </si>
+  <si>
+    <t>Seemed more like gameplay as it wasn’t trying to invoke thought</t>
+  </si>
+  <si>
+    <t>Wouldn’t say there is one</t>
+  </si>
+  <si>
+    <t>The game is obviously fighting but the lack of music doesn’t compliment it. There was no atmosphere to the scene</t>
+  </si>
+  <si>
+    <t>Missing what the first video had which had atmospheric music and made the sequence feel more like an action</t>
+  </si>
+  <si>
+    <t>Anything from john wick</t>
+  </si>
+  <si>
+    <t>A bit of a rollercoaster the music didn’t match the choreography of the fight but then it suddenly switched and then it switched again. At that point I started to theorise what was going on, do they have multiple personalities? I was trying to think of reasons for the changes</t>
+  </si>
+  <si>
+    <t>Not as much as the previous ones. I got confused at the changing. I think I was trying to read between the lines and was struggling</t>
+  </si>
+  <si>
+    <t>It didn’t feel as smooth, it was jumping from dark to colour and then back to black and white. It caught my interest but I was still confused</t>
+  </si>
+  <si>
+    <t>I was expecting it to be a horror but when it jumped it caught my interest with the sudden interest in tempo. I liked the initial jump to colour but I wasn’t happy when it changed back into black and white. It didn’t reach my expecation in that halfway in changed but that made my expectations rise more which was then also not delivered upon</t>
+  </si>
+  <si>
+    <t>I was just getting confused</t>
+  </si>
+  <si>
+    <t>It was very dark and the outskirts were black. There was less to see which made me feel isolated and closed off but then it jumped into colour which I liked but when it went to black and white I wanted the colours back</t>
+  </si>
+  <si>
+    <t>Made me feel sad and wanting more but when I was given more you took it back. It got me excited for a second like I was fishing for it</t>
+  </si>
+  <si>
+    <t>From early it gave very spooky vibes and didn’t fit the scene but the music when it was colourful fit the vibe and gave it a liberation kind of tone to the video</t>
+  </si>
+  <si>
+    <t>Psychological as my brain was all over the place. Horror psychological as it seems like she is getting possessed</t>
+  </si>
+  <si>
+    <t>Horror, mafia, action, crime</t>
+  </si>
+  <si>
+    <t>Despair for a second, this caught my interest more from the beginning rather than the last clip. I liked the effects at the beginning but this felt more like a video game in which you finished a cut scene and are about to fight some people</t>
+  </si>
+  <si>
+    <t>Yes and each section is different colours and different perspectives. This feels like one of those videos where you won't get an explanation it is up to the viewers interpretation</t>
+  </si>
+  <si>
+    <t>I thought it was cool and I enjoyed that the colours and music changed frequently. After watching the first bit I thought this is what we were going to get but then it changed and then it changed again but after that point I was anticipating the change and curious as to what was going to come next</t>
+  </si>
+  <si>
+    <t>I was expecting it to be like a video game but then it changed and then it changed to something else but regardless of how much each section was different the music matched with the style on screen</t>
+  </si>
+  <si>
+    <t>There was no cut at the end where I expected another change. It is quite difficult to have expectations on something that changes so often</t>
+  </si>
+  <si>
+    <t>I like the colour at the beginning with the red flashes showing urgency in the sound. But when the colour changed and juxtaposed the audio it felt like a breather like I could relax but then it changed to a comedy. I think the colours fit all the music and styles but for my personal taste i really enjoyed the beginning</t>
+  </si>
+  <si>
+    <t>Nostalgic, it gets your blood pumping. Got me excited but sometimes indifferent because of the blue. The more colour felt comedic but then the noir style had me quite pumped up</t>
+  </si>
+  <si>
+    <t>Video games at the beginning and then funny. Overall the music was fun</t>
+  </si>
+  <si>
+    <t>It was all fast paced, no horror. So action comedy</t>
+  </si>
+  <si>
+    <t>Bring more of the comedy aspect to it which could have tied it together and made the changes seem more intentional</t>
+  </si>
+  <si>
+    <t>Spy</t>
+  </si>
+  <si>
+    <t>I enjoyed the beginning with the changes in frames but then it was taken away from me but suddenly it went slow and I didn’t get it. A lot of the time the colours didn’t match the vibe</t>
+  </si>
+  <si>
+    <t>For the first two seconds yes</t>
+  </si>
+  <si>
+    <t>I loved the beginning as it showed a lot of care and effort. Demonstated a big fight was going to go down and then it doesn’t which was rather upsetting</t>
+  </si>
+  <si>
+    <t>The beginning was chefs kiss</t>
+  </si>
+  <si>
+    <t>I was expecting a cool fight scene montage but that didn’t happen. I ended up confused</t>
+  </si>
+  <si>
+    <t>At first I struggled with the beginning but once you can attach it to something you have seen previously it makes more sense in the viewers head</t>
+  </si>
+  <si>
+    <t>Made me feel angry and sad based off my excitement in the beginning clip. There was nothing new provided down the line in which I was comparing it to the beginning which really caught my eye</t>
+  </si>
+  <si>
+    <t>Music at the beginning was great and should have stayed the same but then it went spooky doll</t>
+  </si>
+  <si>
+    <t>Every genre, I'm not sure. Theres so much here that I don’t get it</t>
+  </si>
+  <si>
+    <t>My answer stays the same</t>
+  </si>
+  <si>
+    <t>More emphasis on the contact with people and sound effects when hitting people. As well as keeping the style consistent throughout</t>
+  </si>
+  <si>
+    <t>The latest TMNT movie which is based on comics</t>
+  </si>
+  <si>
+    <t>I enjoyed it, felt like I could hear everything as the music made it feel more real</t>
+  </si>
+  <si>
+    <t>Felt more personal to the character, this is raw emotion and the viewer has to watch it play out and has no control over what is going on</t>
+  </si>
+  <si>
+    <t>Yes as I could hear more and more. It was simple but powerful</t>
+  </si>
+  <si>
+    <t>No, it was consistent throughout. The colours werent distracting it was very real.</t>
+  </si>
+  <si>
+    <t>I noticed more features on the character which allowed more emotions to be portrayed</t>
+  </si>
+  <si>
+    <t>I was intrigued, sometimes in movies there is no sound to emphasise the importance of a character and a scene. This is their moment and the silence I gave the video when watching was almost respect for their moment</t>
+  </si>
+  <si>
+    <t>The lack of music was a different change of pace and nice. The sound effects made it feel more raw</t>
+  </si>
+  <si>
+    <t>Standard action adventure, thriller. There is nothing that can really influence your choice</t>
+  </si>
+  <si>
+    <t>Action adventure</t>
+  </si>
+  <si>
+    <t>Clear choreography and ability in the scene and clearly she is better. When she holds something in her hand it feels like a weapon</t>
+  </si>
+  <si>
+    <t>Karate kid</t>
+  </si>
+  <si>
+    <t>it was quite interesting, almost like you're watching it from two peoples points of view because of the change in colour. The hardest one to watch though</t>
+  </si>
+  <si>
+    <t>I liked the difference in tone between the coloured one which felt lighthearted compared to the black and white which felt more violent</t>
+  </si>
+  <si>
+    <t>Yes, I liked the video</t>
+  </si>
+  <si>
+    <t>There was the black and white section and the coloured, made you feel like you was watching from two different perspectives whether that was from real time and a memory or real time and someone else watching on a camera</t>
+  </si>
+  <si>
+    <t>Switched from violence and okay to a bit more serious</t>
+  </si>
+  <si>
+    <t>The music in the coloured section put you more at ease</t>
+  </si>
+  <si>
+    <t>Thriller because of the darker portions</t>
+  </si>
+  <si>
+    <t>Musically I would say comedy action</t>
+  </si>
+  <si>
+    <t>Quite good fun</t>
+  </si>
+  <si>
+    <t>It was interesting how it changed from the beginning which felt quite dated. And then it got quite serious as music and colour changed</t>
+  </si>
+  <si>
+    <t>No, but I liked the grain at the beginning</t>
+  </si>
+  <si>
+    <t>Muted and faded, scenes seemed to get older. Different snapshots of fight over a length of time</t>
+  </si>
+  <si>
+    <t>Restful because of the muted tones at the beginning</t>
+  </si>
+  <si>
+    <t>Made me think of a Bruce Lee movie</t>
+  </si>
+  <si>
+    <t>Have a gadget appear</t>
+  </si>
+  <si>
+    <t>Confused, it was all over the place and a bit miss matched</t>
+  </si>
+  <si>
+    <t>Cant really concentrate on it as it was jumping all over the place</t>
+  </si>
+  <si>
+    <t>I didn’t like it</t>
+  </si>
+  <si>
+    <t>The past videos have been cohesive, that was quite hard to follow</t>
+  </si>
+  <si>
+    <t>Had a bit of everything which made it harder to watch</t>
+  </si>
+  <si>
+    <t>When you got the black and white it still felt like a different perspective but when switching to colour it was too quick and you didn’t get long enough before it switched to another format</t>
+  </si>
+  <si>
+    <t>Muddle, there was no chance to settle on anything</t>
+  </si>
+  <si>
+    <t>I could not say</t>
+  </si>
+  <si>
+    <t>It was a bit of everything. I would say action just based off of what was on the screen</t>
+  </si>
+  <si>
+    <t>Brighter colours and feel more animated and look more animated. Animation to me usually has older looking colours</t>
+  </si>
+  <si>
+    <t>Bland</t>
+  </si>
+  <si>
+    <t>Yes, but it was a bit drab</t>
+  </si>
+  <si>
+    <t>You see everything you expect to see</t>
+  </si>
+  <si>
+    <t>Yes, but it was a bit underwhelming</t>
+  </si>
+  <si>
+    <t>After seeing the others, yes</t>
+  </si>
+  <si>
+    <t>Muted tones, they werent dynamic colours so nothing really stood out</t>
+  </si>
+  <si>
+    <t>Indifferent</t>
+  </si>
+  <si>
+    <t>Surprised by the lack of music but didn’t make me think of anything</t>
+  </si>
+  <si>
+    <t>Suggest it is more serious but doesn’t invoke thriller, so action still</t>
+  </si>
+  <si>
+    <t>Needed music to lift it and point it in a direction</t>
+  </si>
+  <si>
+    <t>Bruce Lee movie where he gets his back broken</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A bit confusing when it switched to colour, I was quite enjoying the black and white one. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I didn’t quite understand what I was watching and I ended up getting caught trying to figure out what I was watching rather than watching. Was it a flashback or dream sequence?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I was thinking the same thing, why would one be in colour and the other in black and white?</t>
+    </r>
+  </si>
+  <si>
+    <t>No, it was disjointed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No, I was expecting one long thing but then colour was added to it. To start with the opening scene felt similar to the previous video but then the colour and music changed and the video lost its tempo, which pulled me out of it. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I still felt she was the main character in the black and white but it was a different feel as to why she was going down that corridor but when the colour was added in i was confused</t>
+    </r>
+  </si>
+  <si>
+    <t>Had there been a signifier or context for the colour change you would be looking out for it and thinking it was clever but without that, it took me out of it</t>
+  </si>
+  <si>
+    <t>Confused</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There was black and white and then the colourful one, which wasn’t too bright  but when contrasted with the black and white felt like the most colourful scene we had seen. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The contrast between the two of them was dramatic</t>
+    </r>
+  </si>
+  <si>
+    <t>I don't know what it is meant to be</t>
+  </si>
+  <si>
+    <t>It felt like a music video, where the scene changes perhaps on the progression of the song</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Before the colour came in, I was onboard with the music.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Made me think of tenner, which I felt like I should understand what im watching</t>
+    </r>
+  </si>
+  <si>
+    <t>I started to but then it kept changing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I didn’t like it, I couldn’t get onboard with the first change but I liked the scene opening up like the stretch of a cinema screen. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I quite like the old school movie effects. The inconsistent colour palette and music felt like a spy, heist movie but the way the effects in it changed took me out of it </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I enjoyed the beginning and the pan down to the bottle before opening the borders felt like a "game on" moment. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yeah, and that’s why the cut into something else was so jarring because it was going really well</t>
+    </r>
+  </si>
+  <si>
+    <t>The beginning</t>
+  </si>
+  <si>
+    <t>When it changed from that</t>
+  </si>
+  <si>
+    <t>They were quite washed or perhaps like they had bled a bit, perhaps because of the old film style but I thought that was quite charming</t>
+  </si>
+  <si>
+    <t>It was quite cheerie</t>
+  </si>
+  <si>
+    <t>I thought it was going to be a bit fun</t>
+  </si>
+  <si>
+    <t>Of a theme of a fun spy movie</t>
+  </si>
+  <si>
+    <t>That one</t>
+  </si>
+  <si>
+    <t>Cutting out the inconsistency inbetween the beginning and the end</t>
+  </si>
+  <si>
+    <t>Oceans eleven which stands out because it is fun and you want to be doing it with them</t>
+  </si>
+  <si>
+    <r>
+      <t>The wrong music with the wrong colour.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I liked the beginning because it felt like I was looking at a comic strip.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The black border zoomed in on the bottle and then out. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It felt like you were looking at panels, the shading on the walls did help</t>
+    </r>
+  </si>
+  <si>
+    <t>I liked the beginning but didn’t notice anything after as I was thrown off</t>
+  </si>
+  <si>
+    <t>The colours in the corridor felt different</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of consistency </t>
+  </si>
+  <si>
+    <t>I enjoyed it at the beginning before the colourful bit came in</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Started off muted but colourful. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There were limited colours, almost block colours. It looked less realistic like a comic which made the panel feel better with the corridor</t>
+    </r>
+  </si>
+  <si>
+    <t>The music and colours sometimes didn’t match</t>
+  </si>
+  <si>
+    <t>Nonsense</t>
+  </si>
+  <si>
+    <t>It had the desired effect with messed up genres but consistency would be good throughout. It also reminded me of the beginning of spiderverse as that has quite a few genres mixed together</t>
+  </si>
+  <si>
+    <t>Opening and ending credits of spiderverse</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Without the music it was far less engaging.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I thought it felt more violent without the music as you are only concentrating on the action. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Emotionally led by the music</t>
+    </r>
+  </si>
+  <si>
+    <t>It was a bit dull</t>
+  </si>
+  <si>
+    <t>There was nothing dynamic in that video</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I liked the consistency but without change it felt boring. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It felt longer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I thought because it was the original that it would be better. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Had it stayed with the old cinema style and it still have no music it would be far more engaging</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rather muted, previous colour tones had been pushed down. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That felt far more like a game to me</t>
+    </r>
+  </si>
+  <si>
+    <t>Like I was watching a game</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I thought it was far more violent than others ones before.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It felt like watching a muted tik tok video</t>
+    </r>
+  </si>
+  <si>
+    <t>Game footage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looked like a game </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Music in the background and the hits when contact was made to be elevated. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">More whooshes </t>
+    </r>
+  </si>
+  <si>
+    <t>Bruce Lee enter the dragon where he was fighting away from the island</t>
+  </si>
+  <si>
+    <t>I was intrigued by it</t>
+  </si>
+  <si>
+    <t>I thought it was too much going on</t>
+  </si>
+  <si>
+    <t>I didn’t enjoy that, it was weird</t>
+  </si>
+  <si>
+    <t>Didn’t feel like it flowed</t>
+  </si>
+  <si>
+    <t>I don’t think adding colour added anything to the video</t>
+  </si>
+  <si>
+    <t>Bit odd</t>
+  </si>
+  <si>
+    <t>Felt like there were two different perspectives going on</t>
+  </si>
+  <si>
+    <t>I have no idea</t>
+  </si>
+  <si>
+    <t>Still a bit lost, the cut aways were a bit odd</t>
+  </si>
+  <si>
+    <t>I liked the grain bit at the beginning and the scene opening up. I appreciated rather than enjoyed it.</t>
+  </si>
+  <si>
+    <t>It was interesting where it opened up and the effects</t>
+  </si>
+  <si>
+    <t>I was pulled in at the start and then it went down hill</t>
+  </si>
+  <si>
+    <t>Bright colours which we have had before and then black and white which felt cartoon like as well as old</t>
+  </si>
+  <si>
+    <t>All a bit lost, but didn’t think of anything</t>
+  </si>
+  <si>
+    <t>Usually a team is required but needs a teamwork angle</t>
+  </si>
+  <si>
+    <t>Oceans eleven where they pull it altogether at the end</t>
+  </si>
+  <si>
+    <t>There were tricks which made me notice the framing more which I quite enjoyed. I think the change in between the colours made them feel faceless and anonymous. The beginning felt like an old computer game</t>
+  </si>
+  <si>
+    <t>I thought it was interesting and made me take notice more</t>
+  </si>
+  <si>
+    <t>The different colours made me think more</t>
+  </si>
+  <si>
+    <t>Switching been colours added more detail as well as taking away</t>
+  </si>
+  <si>
+    <t>Didn’t make me feel more interested in what was happening but more interested in what they were trying to achieve</t>
+  </si>
+  <si>
+    <t>Felt like a game</t>
+  </si>
+  <si>
+    <t>Computer games</t>
+  </si>
+  <si>
+    <t>Speech bubbles and different shapes. A split screen</t>
+  </si>
+  <si>
+    <t>Dick Tracey used colours to added a comic feel</t>
+  </si>
+  <si>
+    <t>Felt a bit empty and went back to being violent</t>
+  </si>
+  <si>
+    <t>Progress of what hit and the other</t>
+  </si>
+  <si>
+    <t>No, I was rather disappointed with the lack of music</t>
+  </si>
+  <si>
+    <t>Felt quite empty without speaking and music</t>
+  </si>
+  <si>
+    <t>Bluey greys made it feel more realistic</t>
+  </si>
+  <si>
+    <t>Made me think it was more mindless and violent</t>
+  </si>
+  <si>
+    <t>Felt like the first iterations of lara croft</t>
+  </si>
+  <si>
+    <t>Martial arts</t>
+  </si>
+  <si>
+    <t>There wasn’t enough hand to hand combat, too much use of weapons</t>
+  </si>
+  <si>
+    <t>Jackie Chan movies where he is on the statue of liberty</t>
+  </si>
+  <si>
+    <t>Confused, I think you were trying to throw me off</t>
+  </si>
+  <si>
+    <t>It was funny seeing the juxtaposition of the shots</t>
+  </si>
+  <si>
+    <t>I liked the black bars which framed the scene but I wasn’t sure why it changed colour</t>
+  </si>
+  <si>
+    <t>Not really, I thought it was going to be a scary movie but it broke character</t>
+  </si>
+  <si>
+    <t>I thought it was going to be intense but then it changed colour</t>
+  </si>
+  <si>
+    <t>Started greyscale but then jumping to colour made it feel more saturated than it actually was</t>
+  </si>
+  <si>
+    <t>Confused, there is a lot of shadows with a dark vignette. Before going into colour it was quite hard to see and get a feel for how many enemies there was</t>
+  </si>
+  <si>
+    <t>The music has spy motifs before switching to the scene of John Wick at the club</t>
+  </si>
+  <si>
+    <t>Confusing</t>
+  </si>
+  <si>
+    <t>It changed half way through so  I couldn’t tell you</t>
+  </si>
+  <si>
+    <t>Keep it one tone or if you wanted to escalate it, do it gradually. If you wanted to go from greyscale to colour, perhaps in this shot after every hit, you leak in colour but keep the music consistent</t>
+  </si>
+  <si>
+    <t>More confusing than the last video and at one point the aspect ratio changed to a phone</t>
+  </si>
+  <si>
+    <t>Why would you switch framing in the middle of the video, it changed everything. I hate the mobile phone angle</t>
+  </si>
+  <si>
+    <t>I didn’t know what to expect and it disappointed me</t>
+  </si>
+  <si>
+    <t>I thought it was going to be an escape scene</t>
+  </si>
+  <si>
+    <t>Quite saturated and red with a filter which made it feel old, which works with the martial arts</t>
+  </si>
+  <si>
+    <t>It changed so often that I couldn’t get a read on the scene. I was never able to get settled</t>
+  </si>
+  <si>
+    <t>Felt like an escape at the beginning but then it was jumping and changing. It felt wrong</t>
+  </si>
+  <si>
+    <t>No genre</t>
+  </si>
+  <si>
+    <t>The music changing didn’t let me define a genre</t>
+  </si>
+  <si>
+    <t>I need to see the consequence for getting to the end, some sort of a stake for failure</t>
+  </si>
+  <si>
+    <t>Now you see me and there a lot of scenes where you know what they want to do but you can see possible risks and danger</t>
+  </si>
+  <si>
+    <t>Confused, I don’t know what genre is the aim</t>
+  </si>
+  <si>
+    <t>I liked the start where the framing was chopping and cutting but needed motion blur to accentuate the motion. Didn’t like it panning out and changing colour scheme</t>
+  </si>
+  <si>
+    <t>Not really, no</t>
+  </si>
+  <si>
+    <t>Didn’t like the beginning shot as every one mixed into the scene. I liked the beginning and thought there would be more cutting in using the black bars to bring a fast tempo</t>
+  </si>
+  <si>
+    <t>The blues and the oranges looked squished in and slightly ruined the immersion of the scene. At the beginning it looks like they are standing in mud</t>
+  </si>
+  <si>
+    <t>Made me feel a little sick</t>
+  </si>
+  <si>
+    <t>Not really, conflicted too much for me to make a decision</t>
+  </si>
+  <si>
+    <t>I don’t know, why is the funny music over the greyscale. I think you're deliberately matching things together that don’t match</t>
+  </si>
+  <si>
+    <t>Feels like the mobile ads where the gameplay isnt the game and you watch it in disbelief</t>
+  </si>
+  <si>
+    <t>The whole artstyle needs to change, it feels like you took something that is not like a comic but you tried to make it look like one</t>
+  </si>
+  <si>
+    <t>Teen Titans intro where the charater portraits cut into</t>
+  </si>
+  <si>
+    <t>This one feels understimulating. Feels eerie</t>
+  </si>
+  <si>
+    <t>Yeah, it was just regular kung-fu. Could be improved with the music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felt quite standard, but the camera angles show we are travelling through the scene </t>
+  </si>
+  <si>
+    <t>Yeah, I got the impression we were going to the end of the corridor</t>
+  </si>
+  <si>
+    <t>Needs fill in between the fight scenes when there is no noise</t>
+  </si>
+  <si>
+    <t>There is nothing to distract you from seeing everything</t>
+  </si>
+  <si>
+    <t>The colours are toned down and muted to focus on the fighting</t>
+  </si>
+  <si>
+    <t>The lack of sound making it awkward reminded me of no country for old men because there is little music to give you reprieve. No music to esacpe from the rise in tension</t>
+  </si>
+  <si>
+    <t>Student film</t>
+  </si>
+  <si>
+    <t>Cutting in closer to the action so we can really feel the action. As there is little leg action we could have more waist height camera anlges which will let us see more of what is happening down the corridor</t>
+  </si>
+  <si>
+    <t>The raid where he teams up with another guy in a two against one scene. You never get lost in the scene but they put you in the best place to see the action</t>
+  </si>
+  <si>
+    <t>I thought of Joey from friends with the initial "Hey", which added a comedy element to it</t>
+  </si>
+  <si>
+    <t>My least favourite</t>
+  </si>
+  <si>
+    <t>Jumps too much for me</t>
+  </si>
+  <si>
+    <t>Thought it would be too many</t>
+  </si>
+  <si>
+    <t>The colour was too in your face and you try to adjust to that thinking</t>
+  </si>
+  <si>
+    <t>No it was rubbish</t>
+  </si>
+  <si>
+    <t>Dream states</t>
+  </si>
+  <si>
+    <t>Muddled up</t>
+  </si>
+  <si>
+    <t>Not particularly but I liked the twist from colour to black and white</t>
+  </si>
+  <si>
+    <t>I liked the side borders</t>
+  </si>
+  <si>
+    <t>If it jumped I wished it did it less</t>
+  </si>
+  <si>
+    <t>Confused me</t>
+  </si>
+  <si>
+    <t>Sounded weird</t>
+  </si>
+  <si>
+    <t>Wasn’t paying attention to the music</t>
+  </si>
+  <si>
+    <t>I liked the waterwork of it, felt almost painted</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Would have been better if it kept to one theme</t>
+  </si>
+  <si>
+    <t>The beginning and the end</t>
+  </si>
+  <si>
+    <t>The middle</t>
+  </si>
+  <si>
+    <t>waterwork colours felt painted. The art style was nice and felt more animated</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>In spiderverse when he goes to colour  with his uncle</t>
+  </si>
+  <si>
+    <t>Nice to keep it steady</t>
+  </si>
+  <si>
+    <t>yeah</t>
+  </si>
+  <si>
+    <t>Following her down the corridor</t>
+  </si>
+  <si>
+    <t>Felt like you were fighting with her</t>
+  </si>
+  <si>
+    <t>Wanted to see the conclusion</t>
+  </si>
+  <si>
+    <t>Muted but the red sash was visible so you could see what she was doing</t>
+  </si>
+  <si>
+    <t>Mute, didn’t feel in your face</t>
+  </si>
+  <si>
+    <t>Made you concentrate on what was happening</t>
+  </si>
+  <si>
+    <t>Thriller or horror</t>
+  </si>
+  <si>
+    <t>If you added music</t>
+  </si>
+  <si>
+    <t>Bruce Lee as the green hornet</t>
+  </si>
+  <si>
+    <t>the long and thin made me feel like it was a western movie</t>
+  </si>
+  <si>
+    <t>I wanted consistency</t>
+  </si>
+  <si>
+    <t>Went from grungey wester style to cute pop</t>
+  </si>
+  <si>
+    <t>They were all over the place, felt like stranger things but worse</t>
+  </si>
+  <si>
+    <t>Entertaining</t>
+  </si>
+  <si>
+    <t>It was alright</t>
+  </si>
+  <si>
+    <t>Kept changing, quite annoying</t>
+  </si>
+  <si>
+    <t>Not really, was too distracted by the colours</t>
+  </si>
+  <si>
+    <t>Hard to have expectations when I didn’t know what i was watching</t>
+  </si>
+  <si>
+    <t>A lot, reminded me of Wes Anderson</t>
+  </si>
+  <si>
+    <t>Too many,  a whole lot of emotions</t>
+  </si>
+  <si>
+    <t>Confusion</t>
+  </si>
+  <si>
+    <t>Everything and anything</t>
+  </si>
+  <si>
+    <t>Wax off wax on from karate kid</t>
+  </si>
+  <si>
+    <t>I liked the beginning, reminded me of comic books</t>
+  </si>
+  <si>
+    <t>Hard to have an opinon as it kept changing</t>
+  </si>
+  <si>
+    <t>Wanted the genre to stay the same</t>
+  </si>
+  <si>
+    <t>The beginning was oversaturated and pixelated</t>
+  </si>
+  <si>
+    <t>Weird</t>
+  </si>
+  <si>
+    <t>No as it kept changing</t>
+  </si>
+  <si>
+    <t>Game or arcade</t>
+  </si>
+  <si>
+    <t>If the style stayed the same</t>
+  </si>
+  <si>
+    <t>GTA V</t>
+  </si>
+  <si>
+    <t>Feels quite empty</t>
+  </si>
+  <si>
+    <t>If I had seen that first then yes, but it felt quite empty</t>
+  </si>
+  <si>
+    <t>As it felt like a game you were supporting the character as they progressed</t>
+  </si>
+  <si>
+    <t>I wanted to see what happened after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mute tone, the game was going for an intense thriller genre and the previous videos just heightened that </t>
+  </si>
+  <si>
+    <t>There was no music so it felt empty but I liked the sound effects</t>
+  </si>
+  <si>
+    <t>Thriller, action</t>
+  </si>
+  <si>
+    <t>Hard to suggest improvements without context</t>
+  </si>
+  <si>
+    <t>This has been the most disappointing one so far as there doesn’t feel like a consistent narrative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I didn’t </t>
+  </si>
+  <si>
+    <t>Juxtaposition to create contrast and progress a story in the same area</t>
+  </si>
+  <si>
+    <t>This could have been better if there was more substance to draw on what was happening with the character</t>
+  </si>
+  <si>
+    <t>The black and white feels like it intends to be a horror/thriller but the colour feels reminiscient of comedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make me think of comedy skits or vines </t>
+  </si>
+  <si>
+    <t>Slapstick</t>
+  </si>
+  <si>
+    <t>Intentional slapstick comedy. In a game you are made to feel like youre playing as the character but in this one you feel like youre watching the character</t>
+  </si>
+  <si>
+    <t>That felt like an execution of several different styles in one video. While watching  I was confused</t>
+  </si>
+  <si>
+    <t>The framing felt intentional which worked quite well</t>
+  </si>
+  <si>
+    <t>The colour schemes and tone shift was not satisfying</t>
+  </si>
+  <si>
+    <t>Felt consistent but with different effects to convey a different perspective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The greyscale felt out of place </t>
+  </si>
+  <si>
+    <t>Many things but not one defined answer</t>
+  </si>
+  <si>
+    <t>Action but different portrayals of action</t>
+  </si>
+  <si>
+    <t>Fighting or action</t>
+  </si>
+  <si>
+    <t>The overlay of the first one and the colour scheme of the second one in pivotal moments would make it feel really cool</t>
+  </si>
+  <si>
+    <t>For the first five seconds I enjoyed it but after that it didn’t feel like there was a genre in mind</t>
+  </si>
+  <si>
+    <t>I did enjoy this one because it feels like there are element of exploration</t>
+  </si>
+  <si>
+    <t>The bottle being highlighted was nice, even it is not the main threat it is the beginning of the confrontation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bottle zoom in </t>
+  </si>
+  <si>
+    <t>Bringing in the layers of the light made it feel like a cartoon but its remenicscient of highly stylised pieces of media. Looks like an oil painting</t>
+  </si>
+  <si>
+    <t>I liked the style as it is unconventional</t>
+  </si>
+  <si>
+    <t>Reminds me of donkey kong and uncharted, you feel like you're embarking on a quest because of the tropical style drums</t>
+  </si>
+  <si>
+    <t>If there was one, it was not clear to me</t>
+  </si>
+  <si>
+    <t>Got to fight against people to get to something so like an adventure</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>The style came to me but not the genre itself, if the scene was brighter than perhaps. Having the white highlight the dark rather than the dark bring out the shadows</t>
+  </si>
+  <si>
+    <t>It felt like the sole meaning of this one was to watch two people fighting</t>
+  </si>
+  <si>
+    <t>Yes but very plain</t>
+  </si>
+  <si>
+    <t>Zooms in nicely but isnt too overpowering but that is game design not scene design</t>
+  </si>
+  <si>
+    <t>No but it has subverted it due to it being the last video I am watching it is nice to see how such a plain piece of media can be made to portray different emotions</t>
+  </si>
+  <si>
+    <t>It is very plain</t>
+  </si>
+  <si>
+    <t>The piece is showing a confrontation</t>
+  </si>
+  <si>
+    <t>Could be used as a pivotal piece</t>
+  </si>
+  <si>
+    <t>A genre that is on the darker side of media</t>
+  </si>
+  <si>
+    <t>A solo adventure</t>
+  </si>
+  <si>
+    <t>Utilisation of martial arts that isnt a lot of weapons</t>
+  </si>
+  <si>
+    <t>Confused but I quite liked it</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I did, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>half and half</t>
+    </r>
+  </si>
+  <si>
+    <t>Looks a bit darker in  the corners when it is black and white</t>
+  </si>
+  <si>
+    <t>When I understood what was going on</t>
+  </si>
+  <si>
+    <t>I thought it was going to be another horror/thriller</t>
+  </si>
+  <si>
+    <r>
+      <t>Black and white.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The colours made it quite confusing and vibrant but matched the music at the sam time</t>
+    </r>
+  </si>
+  <si>
+    <t>Bipolar</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">No, felt quite tense but it lost it. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Felt like a last stand kind of scene but then went all hype</t>
+    </r>
+  </si>
+  <si>
+    <t>Thriller/comedy</t>
+  </si>
+  <si>
+    <t>Trhiller/comedy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stressed at the start, loud noises, loud colours.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Felt like I was in the hospital</t>
+    </r>
+  </si>
+  <si>
+    <t>It was alright, felt intrigued</t>
+  </si>
+  <si>
+    <t>I liked how it changed a lot, at the beginning it reminded me of mario kart before the race took off</t>
+  </si>
+  <si>
+    <t>I was a bit confused as it went on</t>
+  </si>
+  <si>
+    <r>
+      <t>Set it up to be fast paced which it kept but I didn’t enjoy it.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lacked a sense of clarity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blue, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">yellow. It was colourful but did it go black and white at the end? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yeah during the tik tok bit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bipolar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, engaged but confused</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hospital,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>something fast paced like a race</t>
+    </r>
+  </si>
+  <si>
+    <t>Action, sport</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Different soundtrack, perhaps similar to pink panther. Show they're creeping about</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>James Bond,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Wallace and Gromit where they have to dodge the laser beams</t>
+    </r>
+  </si>
+  <si>
+    <t>Yeah, got the brain thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I liked it </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rollercoaster, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>probably the most confusing one</t>
+    </r>
+  </si>
+  <si>
+    <t>Bottle zoom in</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The colour and the tone had been made to feel opposite. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It did confuse me</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A lot, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all the colours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Confused.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I was angry about how many colours were shown on the screen</t>
+    </r>
+  </si>
+  <si>
+    <t>Sea of thieves and close to spy genre again</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Subtitles, onomatopoeia</t>
+  </si>
+  <si>
+    <t>You could see everything</t>
+  </si>
+  <si>
+    <t>I was expecting some sort of music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blues and dark colours </t>
+  </si>
+  <si>
+    <t>Bored</t>
+  </si>
+  <si>
+    <t>Reminded me that it was a game</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Action, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>silent movie</t>
+    </r>
+  </si>
+  <si>
+    <t>Some sort of music which blended well with the choreo</t>
+  </si>
+  <si>
+    <t>The final scene in karate kid, where he wins the tournament</t>
+  </si>
+  <si>
+    <t>Intrigued and confused</t>
+  </si>
+  <si>
+    <t>Yeah, kept me on my toes</t>
+  </si>
+  <si>
+    <r>
+      <t>Wide angle,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I don’t know if it was to do with different perspectives</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.It felt like something was following her</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yes, I didn’t expect it to change.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I was worried I was going to be bored by the end so the change up kept me intrigued</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I was a little bit confused. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I had an expecation that it would stay the same but that its not a bad thing that it changed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The first thing I noticed when it switched to colour was the orange. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I like the greyscale which makes it feel darker. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orange is quite an intense colour and after looking at the black and white it was a little like an assualt on the eyeballs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Confused,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> scared at the beginning </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>but then intrigued</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Made me think of like a slasher,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I don’t rememeber noticing much music but hearing the sound effects a lot more </t>
+    </r>
+  </si>
+  <si>
+    <t>I  would say horror but it was also quite comedic</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confused</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, very confused a little bit entertained as well</t>
+    </r>
+  </si>
+  <si>
+    <t>Yeah, it kept me on my toes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It was all over the place but I liked when it panned to wide screen. Next thing I knew it was vertical. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Went phone size</t>
+    </r>
+  </si>
+  <si>
+    <t>By the end of it, I didn’t have any expecations. None of it was what I expected</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I really liked the opening bit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>but then it didn’t continue</t>
+    </r>
+  </si>
+  <si>
+    <t>Confused as one minute I was looking at cyan and then the other I was looking at orange</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Black and white. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All the colours. I didn’t have a chance to focus on the colours as it felt chaotic</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The first bit of the music felt apocalyptic or fantasy story. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It felt like I flicking through music options.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Like presets</t>
+    </r>
+  </si>
+  <si>
+    <t>There cant be a genre, unless there is a chaotic genre</t>
+  </si>
+  <si>
+    <r>
+      <t>Comedy.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Felt like a fantasy.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The music combination felt comedic but I don’t think there was any</t>
+    </r>
+  </si>
+  <si>
+    <t>Oceans 8 where theyre going through the musuem. Or CCTV shots</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It all happened very fast, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">so perhaps longer sections </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>but if short sections keep them consistent</t>
+    </r>
+  </si>
+  <si>
+    <t>Confused again, lots of different angles, lots of different colour and music</t>
+  </si>
+  <si>
+    <t>Yes, I was entertained</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I liked the pan down the bottle, it felt very animated. Felt like a shonen fight scene. Was there a sound or did I make that up in my head? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Again it went to black and white so I couldn’t really pick out any key points</t>
+    </r>
+  </si>
+  <si>
+    <t>I wasn’t sure what my expecations were</t>
+  </si>
+  <si>
+    <t>I wanted the first bit to continue</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lots of reds and cyans. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There was less black and white and more focus on the colours. I noticed the cyans and oranges a bit more. It made it a little bit easier to follow</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intrigued but confused. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compared to the last one I was less confused though</t>
+    </r>
+  </si>
+  <si>
+    <t>Made me think of all the genres</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All the genres.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Im going to go with anime</t>
+    </r>
+  </si>
+  <si>
+    <t>Movement lines, outlines around characters and emphasis on movement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Into the spiderverse. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When it cropped it was very reminiscient of spiderman</t>
+    </r>
+  </si>
+  <si>
+    <t>Immersed into it</t>
+  </si>
+  <si>
+    <t>Yes, the lack of extra details allowed me to notice extra things</t>
+  </si>
+  <si>
+    <t>I think it works. Seems like a POV.</t>
+  </si>
+  <si>
+    <r>
+      <t>Not very entertained. It needed some music.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I quite liked the echo sound effects</t>
+    </r>
+  </si>
+  <si>
+    <t>The lack of music</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The impact was very clear, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>you could feel the air resistance on hits.</t>
+    </r>
+  </si>
+  <si>
+    <t>Intrigued. I want to know where she is and who she is fighting.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It was a lot more muted than I thought it was going to be but I quite liked it.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It does work with the action style</t>
+    </r>
+  </si>
+  <si>
+    <t>The sound effects were much clearer but the lack of music made it feel empty. I felt if I was in the room I would have heard their shoes squeeking on the floor</t>
+  </si>
+  <si>
+    <t>Action, like a revenge story</t>
+  </si>
+  <si>
+    <t>Action, when you watch an action you want to see people get punched and there was no distraction from it</t>
+  </si>
+  <si>
+    <t>Some sort of soundtrack, just subtle. A nice drum beat would be nice even if it came in slowly as she approached the door</t>
+  </si>
+  <si>
+    <t>Blue eyed samurai on netflix as that is based on a revenge story</t>
   </si>
 </sst>
 </file>
@@ -3781,7 +5970,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3797,6 +5986,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3841,7 +6036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3916,6 +6111,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4234,8 +6444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E243600-399A-4CC1-946C-B4E7231C4D7C}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4274,7 +6484,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4285,7 +6495,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4296,7 +6506,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4325,7 +6535,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4354,38 +6564,38 @@
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4413,139 +6623,91 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4558,8 +6720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6738FF18-A147-4E41-8523-161D7CF23846}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4602,7 +6764,7 @@
         <v>28</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>29</v>
@@ -4625,40 +6787,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -4666,38 +6828,38 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -4705,40 +6867,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -4746,40 +6908,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -4787,40 +6949,40 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -4828,40 +6990,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
@@ -4869,40 +7031,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -4910,40 +7072,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -4951,163 +7113,163 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -5119,128 +7281,80 @@
       <c r="B16" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5252,8 +7366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2C475B-AF68-405D-8317-A40A9ACDD880}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5275,7 +7389,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>23</v>
@@ -5296,7 +7410,7 @@
         <v>28</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>29</v>
@@ -5319,40 +7433,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5360,40 +7474,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="120" x14ac:dyDescent="0.25">
@@ -5401,40 +7515,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5442,40 +7556,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="195" x14ac:dyDescent="0.25">
@@ -5483,40 +7597,40 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5524,37 +7638,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -5563,40 +7677,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5604,40 +7718,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -5645,161 +7759,161 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -5811,128 +7925,80 @@
       <c r="B16" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5944,8 +8010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6A5D2E-FC25-4561-BF8E-5522C669B9BC}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="I5" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5967,7 +8033,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>23</v>
@@ -5988,7 +8054,7 @@
         <v>28</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>29</v>
@@ -6011,40 +8077,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -6052,38 +8118,38 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -6091,40 +8157,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -6132,40 +8198,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -6173,38 +8239,38 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -6212,40 +8278,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -6253,40 +8319,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -6294,38 +8360,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -6333,163 +8399,163 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -6501,128 +8567,80 @@
       <c r="B16" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6634,8 +8652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B2DB4A-ED1D-4F15-9A6B-76EAB5FEF9FB}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6657,7 +8675,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>23</v>
@@ -6678,7 +8696,7 @@
         <v>28</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>29</v>
@@ -6701,40 +8719,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6742,38 +8760,38 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -6781,40 +8799,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -6822,40 +8840,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -6863,38 +8881,38 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="4" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6902,40 +8920,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -6943,40 +8961,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6984,40 +9002,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -7025,159 +9043,159 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -7189,128 +9207,80 @@
       <c r="B16" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7322,8 +9292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0C95F2-FF73-4C2A-9845-6C6D2AD5D61D}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7345,7 +9315,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>23</v>
@@ -7366,7 +9336,7 @@
         <v>28</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>29</v>
@@ -7384,209 +9354,2329 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>589</v>
+      </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+    </row>
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="21"/>
+      <c r="B6" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>757</v>
+      </c>
       <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="24"/>
+      <c r="E6" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>844</v>
+      </c>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>980</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>981</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>982</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>983</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>984</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>985</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>986</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>987</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>988</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB41129-643D-433C-9E69-C5A8E62D5A85}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" customWidth="1"/>
+    <col min="8" max="8" width="57.42578125" customWidth="1"/>
+    <col min="9" max="9" width="51" customWidth="1"/>
+    <col min="10" max="10" width="51.85546875" customWidth="1"/>
+    <col min="11" max="11" width="57" customWidth="1"/>
+    <col min="12" max="12" width="66" customWidth="1"/>
+    <col min="13" max="13" width="63.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>990</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>991</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>992</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>993</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>994</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>995</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>996</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>997</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>998</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>999</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B1E563-244D-4D2D-A8E0-8DE22913E57A}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" customWidth="1"/>
+    <col min="8" max="8" width="57.42578125" customWidth="1"/>
+    <col min="9" max="9" width="51" customWidth="1"/>
+    <col min="10" max="10" width="51.85546875" customWidth="1"/>
+    <col min="11" max="11" width="57" customWidth="1"/>
+    <col min="12" max="12" width="66" customWidth="1"/>
+    <col min="13" max="13" width="63.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7935269-F441-4B6C-B47A-CD239670D12E}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" customWidth="1"/>
+    <col min="8" max="8" width="57.42578125" customWidth="1"/>
+    <col min="9" max="9" width="51" customWidth="1"/>
+    <col min="10" max="10" width="51.85546875" customWidth="1"/>
+    <col min="11" max="11" width="57" customWidth="1"/>
+    <col min="12" max="12" width="66" customWidth="1"/>
+    <col min="13" max="13" width="63.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>794</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>795</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>938</v>
+      </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>940</v>
+      </c>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>941</v>
+      </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>979</v>
+      </c>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+        <v>98</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>1064</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -7597,128 +11687,80 @@
       <c r="B16" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
